--- a/analysis/mails_01/P09_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P09_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="1003">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">04/09/2019 00:00</t>
+    <t xml:space="preserve">2019-09-04</t>
   </si>
   <si>
     <t xml:space="preserve">56.6989</t>
@@ -132,7 +132,7 @@
     <t xml:space="preserve">MFD00116</t>
   </si>
   <si>
-    <t xml:space="preserve">02/09/2019 00:00</t>
+    <t xml:space="preserve">2019-09-02</t>
   </si>
   <si>
     <t xml:space="preserve">56.8854</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">MFD00589</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-25</t>
   </si>
   <si>
     <t xml:space="preserve">55.9595</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">MFD00612</t>
   </si>
   <si>
-    <t xml:space="preserve">31/03/2020 00:00</t>
+    <t xml:space="preserve">2020-03-31</t>
   </si>
   <si>
     <t xml:space="preserve">56.0998</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">MFD00613</t>
   </si>
   <si>
-    <t xml:space="preserve">05/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.229</t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve">MFD00634</t>
   </si>
   <si>
-    <t xml:space="preserve">22/06/2020 00:00</t>
+    <t xml:space="preserve">2020-06-22</t>
   </si>
   <si>
     <t xml:space="preserve">55.873</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">MFD00683</t>
   </si>
   <si>
-    <t xml:space="preserve">28/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-28</t>
   </si>
   <si>
     <t xml:space="preserve">55.6032</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">MFD00709</t>
   </si>
   <si>
-    <t xml:space="preserve">30/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-30</t>
   </si>
   <si>
     <t xml:space="preserve">55.9091</t>
@@ -267,7 +267,7 @@
     <t xml:space="preserve">MFD00727</t>
   </si>
   <si>
-    <t xml:space="preserve">08/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-08</t>
   </si>
   <si>
     <t xml:space="preserve">55.2475</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">MFD00735</t>
   </si>
   <si>
-    <t xml:space="preserve">28/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-28</t>
   </si>
   <si>
     <t xml:space="preserve">56.5335</t>
@@ -291,7 +291,7 @@
     <t xml:space="preserve">MFD00742</t>
   </si>
   <si>
-    <t xml:space="preserve">07/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-07</t>
   </si>
   <si>
     <t xml:space="preserve">55.2329</t>
@@ -303,7 +303,7 @@
     <t xml:space="preserve">MFD00754</t>
   </si>
   <si>
-    <t xml:space="preserve">15/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-15</t>
   </si>
   <si>
     <t xml:space="preserve">56.0778</t>
@@ -333,7 +333,7 @@
     <t xml:space="preserve">MFD00762</t>
   </si>
   <si>
-    <t xml:space="preserve">13/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-13</t>
   </si>
   <si>
     <t xml:space="preserve">56.0473</t>
@@ -354,7 +354,7 @@
     <t xml:space="preserve">MFD00774</t>
   </si>
   <si>
-    <t xml:space="preserve">27/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-27</t>
   </si>
   <si>
     <t xml:space="preserve">55.7924</t>
@@ -384,7 +384,7 @@
     <t xml:space="preserve">MFD00902</t>
   </si>
   <si>
-    <t xml:space="preserve">03/06/2020 00:00</t>
+    <t xml:space="preserve">2020-06-03</t>
   </si>
   <si>
     <t xml:space="preserve">56.0519</t>
@@ -411,7 +411,7 @@
     <t xml:space="preserve">MFD00936</t>
   </si>
   <si>
-    <t xml:space="preserve">20/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-20</t>
   </si>
   <si>
     <t xml:space="preserve">55.125</t>
@@ -423,7 +423,7 @@
     <t xml:space="preserve">MFD00943</t>
   </si>
   <si>
-    <t xml:space="preserve">21/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-21</t>
   </si>
   <si>
     <t xml:space="preserve">55.0356</t>
@@ -435,7 +435,7 @@
     <t xml:space="preserve">MFD00991</t>
   </si>
   <si>
-    <t xml:space="preserve">07/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-07</t>
   </si>
   <si>
     <t xml:space="preserve">56.5211</t>
@@ -459,7 +459,7 @@
     <t xml:space="preserve">MFD01007</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-26</t>
   </si>
   <si>
     <t xml:space="preserve">55.8025</t>
@@ -540,7 +540,7 @@
     <t xml:space="preserve">MFD01105</t>
   </si>
   <si>
-    <t xml:space="preserve">21/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-21</t>
   </si>
   <si>
     <t xml:space="preserve">55.6125</t>
@@ -555,7 +555,7 @@
     <t xml:space="preserve">MFD01119</t>
   </si>
   <si>
-    <t xml:space="preserve">12/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-12</t>
   </si>
   <si>
     <t xml:space="preserve">55.7487</t>
@@ -627,7 +627,7 @@
     <t xml:space="preserve">MFD01226</t>
   </si>
   <si>
-    <t xml:space="preserve">22/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-22</t>
   </si>
   <si>
     <t xml:space="preserve">56.3963</t>
@@ -648,7 +648,7 @@
     <t xml:space="preserve">MFD01231</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2020 00:00</t>
+    <t xml:space="preserve">2020-04-29</t>
   </si>
   <si>
     <t xml:space="preserve">54.9735</t>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">MFD01241</t>
   </si>
   <si>
-    <t xml:space="preserve">05/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-05</t>
   </si>
   <si>
     <t xml:space="preserve">55.7994</t>
@@ -723,7 +723,7 @@
     <t xml:space="preserve">MFD01433</t>
   </si>
   <si>
-    <t xml:space="preserve">26/05/2021 05:52</t>
+    <t xml:space="preserve">2021-05-26</t>
   </si>
   <si>
     <t xml:space="preserve">56.3393</t>
@@ -735,7 +735,7 @@
     <t xml:space="preserve">MFD01434</t>
   </si>
   <si>
-    <t xml:space="preserve">14/05/2021 05:41</t>
+    <t xml:space="preserve">2021-05-14</t>
   </si>
   <si>
     <t xml:space="preserve">55.6564</t>
@@ -747,7 +747,7 @@
     <t xml:space="preserve">MFD01476</t>
   </si>
   <si>
-    <t xml:space="preserve">26/07/2021 04:00</t>
+    <t xml:space="preserve">2021-07-26</t>
   </si>
   <si>
     <t xml:space="preserve">56.5093</t>
@@ -759,7 +759,7 @@
     <t xml:space="preserve">MFD01508</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2021 08:17</t>
+    <t xml:space="preserve">2021-08-03</t>
   </si>
   <si>
     <t xml:space="preserve">56.8658</t>
@@ -771,7 +771,7 @@
     <t xml:space="preserve">MFD01512</t>
   </si>
   <si>
-    <t xml:space="preserve">02/06/2021 03:06</t>
+    <t xml:space="preserve">2021-06-02</t>
   </si>
   <si>
     <t xml:space="preserve">56.3318</t>
@@ -783,9 +783,6 @@
     <t xml:space="preserve">MFD01525</t>
   </si>
   <si>
-    <t xml:space="preserve">02/06/2021 09:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.315</t>
   </si>
   <si>
@@ -795,7 +792,7 @@
     <t xml:space="preserve">MFD01569</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-14</t>
   </si>
   <si>
     <t xml:space="preserve">55.4955</t>
@@ -810,7 +807,7 @@
     <t xml:space="preserve">MFD01577</t>
   </si>
   <si>
-    <t xml:space="preserve">24/08/2020 04:28</t>
+    <t xml:space="preserve">2020-08-24</t>
   </si>
   <si>
     <t xml:space="preserve">55.572</t>
@@ -822,7 +819,7 @@
     <t xml:space="preserve">MFD01602</t>
   </si>
   <si>
-    <t xml:space="preserve">26/08/2020 04:33</t>
+    <t xml:space="preserve">2020-08-26</t>
   </si>
   <si>
     <t xml:space="preserve">55.4443</t>
@@ -834,7 +831,7 @@
     <t xml:space="preserve">MFD01648</t>
   </si>
   <si>
-    <t xml:space="preserve">11/10/2020 04:25</t>
+    <t xml:space="preserve">2020-10-11</t>
   </si>
   <si>
     <t xml:space="preserve">55.4224</t>
@@ -846,7 +843,7 @@
     <t xml:space="preserve">MFD01666</t>
   </si>
   <si>
-    <t xml:space="preserve">25/08/2020 08:45</t>
+    <t xml:space="preserve">2020-08-25</t>
   </si>
   <si>
     <t xml:space="preserve">55.449</t>
@@ -858,7 +855,7 @@
     <t xml:space="preserve">MFD01684</t>
   </si>
   <si>
-    <t xml:space="preserve">11/05/2021 09:08</t>
+    <t xml:space="preserve">2021-05-11</t>
   </si>
   <si>
     <t xml:space="preserve">56.2073</t>
@@ -870,7 +867,7 @@
     <t xml:space="preserve">MFD01711</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2021 09:17</t>
+    <t xml:space="preserve">2021-05-25</t>
   </si>
   <si>
     <t xml:space="preserve">56.3238</t>
@@ -882,7 +879,7 @@
     <t xml:space="preserve">MFD01724</t>
   </si>
   <si>
-    <t xml:space="preserve">23/11/2021 05:01</t>
+    <t xml:space="preserve">2021-11-23</t>
   </si>
   <si>
     <t xml:space="preserve">55.051</t>
@@ -894,9 +891,6 @@
     <t xml:space="preserve">MFD01743</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2021 08:34</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3229</t>
   </si>
   <si>
@@ -906,9 +900,6 @@
     <t xml:space="preserve">MFD01745</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2021 10:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.339</t>
   </si>
   <si>
@@ -918,9 +909,6 @@
     <t xml:space="preserve">MFD01759</t>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2021 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3289</t>
   </si>
   <si>
@@ -933,7 +921,7 @@
     <t xml:space="preserve">MFD01799</t>
   </si>
   <si>
-    <t xml:space="preserve">02/08/2021 07:49</t>
+    <t xml:space="preserve">2021-08-02</t>
   </si>
   <si>
     <t xml:space="preserve">56.864</t>
@@ -945,7 +933,7 @@
     <t xml:space="preserve">MFD01853</t>
   </si>
   <si>
-    <t xml:space="preserve">07/06/2021 05:25</t>
+    <t xml:space="preserve">2021-06-07</t>
   </si>
   <si>
     <t xml:space="preserve">56.3144</t>
@@ -957,7 +945,7 @@
     <t xml:space="preserve">MFD01863</t>
   </si>
   <si>
-    <t xml:space="preserve">09/06/2021 02:19</t>
+    <t xml:space="preserve">2021-06-09</t>
   </si>
   <si>
     <t xml:space="preserve">56.3129</t>
@@ -969,7 +957,7 @@
     <t xml:space="preserve">MFD01864</t>
   </si>
   <si>
-    <t xml:space="preserve">01/06/2021 09:17</t>
+    <t xml:space="preserve">2021-06-01</t>
   </si>
   <si>
     <t xml:space="preserve">55.583</t>
@@ -981,7 +969,7 @@
     <t xml:space="preserve">MFD01866</t>
   </si>
   <si>
-    <t xml:space="preserve">08/06/2021 08:08</t>
+    <t xml:space="preserve">2021-06-08</t>
   </si>
   <si>
     <t xml:space="preserve">56.3111</t>
@@ -993,9 +981,6 @@
     <t xml:space="preserve">MFD01867</t>
   </si>
   <si>
-    <t xml:space="preserve">11/05/2021 05:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2075</t>
   </si>
   <si>
@@ -1005,9 +990,6 @@
     <t xml:space="preserve">MFD01874</t>
   </si>
   <si>
-    <t xml:space="preserve">07/06/2021 03:32</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3202</t>
   </si>
   <si>
@@ -1017,9 +999,6 @@
     <t xml:space="preserve">MFD01907</t>
   </si>
   <si>
-    <t xml:space="preserve">01/06/2021 04:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3399</t>
   </si>
   <si>
@@ -1029,9 +1008,6 @@
     <t xml:space="preserve">MFD01909</t>
   </si>
   <si>
-    <t xml:space="preserve">09/06/2021 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0588</t>
   </si>
   <si>
@@ -1041,7 +1017,7 @@
     <t xml:space="preserve">MFD01919</t>
   </si>
   <si>
-    <t xml:space="preserve">21/04/2021 08:23</t>
+    <t xml:space="preserve">2021-04-21</t>
   </si>
   <si>
     <t xml:space="preserve">57.5382</t>
@@ -1053,9 +1029,6 @@
     <t xml:space="preserve">MFD01932</t>
   </si>
   <si>
-    <t xml:space="preserve">08/06/2021 06:44</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.309</t>
   </si>
   <si>
@@ -1065,7 +1038,7 @@
     <t xml:space="preserve">MFD01934</t>
   </si>
   <si>
-    <t xml:space="preserve">20/04/2021 00:00</t>
+    <t xml:space="preserve">2021-04-20</t>
   </si>
   <si>
     <t xml:space="preserve">57.4586</t>
@@ -1077,9 +1050,6 @@
     <t xml:space="preserve">MFD01944</t>
   </si>
   <si>
-    <t xml:space="preserve">07/06/2021 04:42</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3134</t>
   </si>
   <si>
@@ -1089,9 +1059,6 @@
     <t xml:space="preserve">MFD01946</t>
   </si>
   <si>
-    <t xml:space="preserve">09/06/2021 07:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.314</t>
   </si>
   <si>
@@ -1101,7 +1068,7 @@
     <t xml:space="preserve">MFD02121</t>
   </si>
   <si>
-    <t xml:space="preserve">27/08/2020 05:14</t>
+    <t xml:space="preserve">2020-08-27</t>
   </si>
   <si>
     <t xml:space="preserve">55.4425</t>
@@ -1113,7 +1080,7 @@
     <t xml:space="preserve">MFD02131</t>
   </si>
   <si>
-    <t xml:space="preserve">06/05/2021 00:00</t>
+    <t xml:space="preserve">2021-05-06</t>
   </si>
   <si>
     <t xml:space="preserve">57.4499</t>
@@ -1125,9 +1092,6 @@
     <t xml:space="preserve">MFD02137</t>
   </si>
   <si>
-    <t xml:space="preserve">09/06/2021 09:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3137</t>
   </si>
   <si>
@@ -1137,7 +1101,7 @@
     <t xml:space="preserve">MFD02143</t>
   </si>
   <si>
-    <t xml:space="preserve">18/03/2021 00:00</t>
+    <t xml:space="preserve">2021-03-18</t>
   </si>
   <si>
     <t xml:space="preserve">55.8946</t>
@@ -1149,9 +1113,6 @@
     <t xml:space="preserve">MFD02148</t>
   </si>
   <si>
-    <t xml:space="preserve">11/05/2021 09:31</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2074</t>
   </si>
   <si>
@@ -1161,9 +1122,6 @@
     <t xml:space="preserve">MFD02204</t>
   </si>
   <si>
-    <t xml:space="preserve">08/06/2021 06:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3086</t>
   </si>
   <si>
@@ -1173,9 +1131,6 @@
     <t xml:space="preserve">MFD02217</t>
   </si>
   <si>
-    <t xml:space="preserve">11/10/2020 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4201</t>
   </si>
   <si>
@@ -1185,9 +1140,6 @@
     <t xml:space="preserve">MFD02225</t>
   </si>
   <si>
-    <t xml:space="preserve">24/08/2020 04:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5725</t>
   </si>
   <si>
@@ -1197,7 +1149,7 @@
     <t xml:space="preserve">MFD02237</t>
   </si>
   <si>
-    <t xml:space="preserve">22/10/2020 03:27</t>
+    <t xml:space="preserve">2020-10-22</t>
   </si>
   <si>
     <t xml:space="preserve">57.2875</t>
@@ -1209,7 +1161,7 @@
     <t xml:space="preserve">MFD02257</t>
   </si>
   <si>
-    <t xml:space="preserve">09/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-09</t>
   </si>
   <si>
     <t xml:space="preserve">55.3676</t>
@@ -1221,7 +1173,7 @@
     <t xml:space="preserve">MFD02260</t>
   </si>
   <si>
-    <t xml:space="preserve">08/09/2020 09:55</t>
+    <t xml:space="preserve">2020-09-08</t>
   </si>
   <si>
     <t xml:space="preserve">55.378</t>
@@ -1233,7 +1185,7 @@
     <t xml:space="preserve">MFD02351</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-05</t>
   </si>
   <si>
     <t xml:space="preserve">55.5241</t>
@@ -1245,9 +1197,6 @@
     <t xml:space="preserve">MFD02357</t>
   </si>
   <si>
-    <t xml:space="preserve">24/08/2020 05:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5735</t>
   </si>
   <si>
@@ -1257,7 +1206,7 @@
     <t xml:space="preserve">MFD02367</t>
   </si>
   <si>
-    <t xml:space="preserve">16/09/2020 03:57</t>
+    <t xml:space="preserve">2020-09-16</t>
   </si>
   <si>
     <t xml:space="preserve">55.6597</t>
@@ -1269,9 +1218,6 @@
     <t xml:space="preserve">MFD02370</t>
   </si>
   <si>
-    <t xml:space="preserve">16/09/2020 06:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6657</t>
   </si>
   <si>
@@ -1281,9 +1227,6 @@
     <t xml:space="preserve">MFD02383</t>
   </si>
   <si>
-    <t xml:space="preserve">16/09/2020 03:58</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.664</t>
   </si>
   <si>
@@ -1293,9 +1236,6 @@
     <t xml:space="preserve">MFD02388</t>
   </si>
   <si>
-    <t xml:space="preserve">16/09/2020 05:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6665</t>
   </si>
   <si>
@@ -1305,7 +1245,7 @@
     <t xml:space="preserve">MFD02392</t>
   </si>
   <si>
-    <t xml:space="preserve">15/09/2020 08:38</t>
+    <t xml:space="preserve">2020-09-15</t>
   </si>
   <si>
     <t xml:space="preserve">55.6647</t>
@@ -1317,7 +1257,7 @@
     <t xml:space="preserve">MFD02393</t>
   </si>
   <si>
-    <t xml:space="preserve">22/09/2020 08:25</t>
+    <t xml:space="preserve">2020-09-22</t>
   </si>
   <si>
     <t xml:space="preserve">55.5463</t>
@@ -1329,18 +1269,12 @@
     <t xml:space="preserve">MFD02433</t>
   </si>
   <si>
-    <t xml:space="preserve">15/09/2020 08:21</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6658</t>
   </si>
   <si>
     <t xml:space="preserve">MFD02449</t>
   </si>
   <si>
-    <t xml:space="preserve">15/09/2020 09:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.667</t>
   </si>
   <si>
@@ -1350,9 +1284,6 @@
     <t xml:space="preserve">MFD02458</t>
   </si>
   <si>
-    <t xml:space="preserve">15/09/2020 10:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6734</t>
   </si>
   <si>
@@ -1374,7 +1305,7 @@
     <t xml:space="preserve">MFD02517</t>
   </si>
   <si>
-    <t xml:space="preserve">21/10/2020 05:16</t>
+    <t xml:space="preserve">2020-10-21</t>
   </si>
   <si>
     <t xml:space="preserve">57.2767</t>
@@ -1386,7 +1317,7 @@
     <t xml:space="preserve">MFD02530</t>
   </si>
   <si>
-    <t xml:space="preserve">13/10/2020 00:00</t>
+    <t xml:space="preserve">2020-10-13</t>
   </si>
   <si>
     <t xml:space="preserve">56.8093</t>
@@ -1398,9 +1329,6 @@
     <t xml:space="preserve">MFD02567</t>
   </si>
   <si>
-    <t xml:space="preserve">15/09/2020 07:57</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6655</t>
   </si>
   <si>
@@ -1410,9 +1338,6 @@
     <t xml:space="preserve">MFD02575</t>
   </si>
   <si>
-    <t xml:space="preserve">15/09/2020 07:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6656</t>
   </si>
   <si>
@@ -1422,9 +1347,6 @@
     <t xml:space="preserve">MFD02587</t>
   </si>
   <si>
-    <t xml:space="preserve">16/09/2020 07:09</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6667</t>
   </si>
   <si>
@@ -1434,9 +1356,6 @@
     <t xml:space="preserve">MFD02672</t>
   </si>
   <si>
-    <t xml:space="preserve">14/05/2021 04:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.6561</t>
   </si>
   <si>
@@ -1446,7 +1365,7 @@
     <t xml:space="preserve">MFD02889</t>
   </si>
   <si>
-    <t xml:space="preserve">29/08/2020 06:05</t>
+    <t xml:space="preserve">2020-08-29</t>
   </si>
   <si>
     <t xml:space="preserve">57.2805</t>
@@ -1458,9 +1377,6 @@
     <t xml:space="preserve">MFD02954</t>
   </si>
   <si>
-    <t xml:space="preserve">08/09/2020 08:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.3706</t>
   </si>
   <si>
@@ -1470,7 +1386,7 @@
     <t xml:space="preserve">MFD03659</t>
   </si>
   <si>
-    <t xml:space="preserve">20/10/2021 09:42</t>
+    <t xml:space="preserve">2021-10-20</t>
   </si>
   <si>
     <t xml:space="preserve">57.4735</t>
@@ -1482,7 +1398,7 @@
     <t xml:space="preserve">MFD04179</t>
   </si>
   <si>
-    <t xml:space="preserve">22/09/2021 04:00</t>
+    <t xml:space="preserve">2021-09-22</t>
   </si>
   <si>
     <t xml:space="preserve">54.8529</t>
@@ -1494,7 +1410,7 @@
     <t xml:space="preserve">MFD04195</t>
   </si>
   <si>
-    <t xml:space="preserve">22/11/2021 02:56</t>
+    <t xml:space="preserve">2021-11-22</t>
   </si>
   <si>
     <t xml:space="preserve">55.3934</t>
@@ -1506,7 +1422,7 @@
     <t xml:space="preserve">MFD04197</t>
   </si>
   <si>
-    <t xml:space="preserve">24/11/2021 04:03</t>
+    <t xml:space="preserve">2021-11-24</t>
   </si>
   <si>
     <t xml:space="preserve">54.7389</t>
@@ -1518,9 +1434,6 @@
     <t xml:space="preserve">MFD04207</t>
   </si>
   <si>
-    <t xml:space="preserve">24/11/2021 02:08</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.7728</t>
   </si>
   <si>
@@ -1530,9 +1443,6 @@
     <t xml:space="preserve">MFD04216</t>
   </si>
   <si>
-    <t xml:space="preserve">22/09/2021 03:39</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8505</t>
   </si>
   <si>
@@ -1542,7 +1452,7 @@
     <t xml:space="preserve">MFD04426</t>
   </si>
   <si>
-    <t xml:space="preserve">30/06/2021 05:42</t>
+    <t xml:space="preserve">2021-06-30</t>
   </si>
   <si>
     <t xml:space="preserve">55.5811</t>
@@ -1554,7 +1464,7 @@
     <t xml:space="preserve">MFD04431</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2021 10:41</t>
+    <t xml:space="preserve">2021-07-14</t>
   </si>
   <si>
     <t xml:space="preserve">55.0763</t>
@@ -1566,7 +1476,7 @@
     <t xml:space="preserve">MFD04475</t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2021 02:44</t>
+    <t xml:space="preserve">2021-06-23</t>
   </si>
   <si>
     <t xml:space="preserve">55.6213</t>
@@ -1578,7 +1488,7 @@
     <t xml:space="preserve">MFD04480</t>
   </si>
   <si>
-    <t xml:space="preserve">21/07/2021 08:47</t>
+    <t xml:space="preserve">2021-07-21</t>
   </si>
   <si>
     <t xml:space="preserve">54.8518</t>
@@ -1590,7 +1500,7 @@
     <t xml:space="preserve">MFD04490</t>
   </si>
   <si>
-    <t xml:space="preserve">10/06/2021 09:05</t>
+    <t xml:space="preserve">2021-06-10</t>
   </si>
   <si>
     <t xml:space="preserve">56.0409</t>
@@ -1602,9 +1512,6 @@
     <t xml:space="preserve">MFD04492</t>
   </si>
   <si>
-    <t xml:space="preserve">08/06/2021 04:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0556</t>
   </si>
   <si>
@@ -1614,7 +1521,7 @@
     <t xml:space="preserve">MFD04514</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2021 02:22</t>
+    <t xml:space="preserve">2021-07-15</t>
   </si>
   <si>
     <t xml:space="preserve">56.3297</t>
@@ -1626,9 +1533,6 @@
     <t xml:space="preserve">MFD04527</t>
   </si>
   <si>
-    <t xml:space="preserve">10/06/2021 11:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0542</t>
   </si>
   <si>
@@ -1638,7 +1542,7 @@
     <t xml:space="preserve">MFD04532</t>
   </si>
   <si>
-    <t xml:space="preserve">19/07/2021 06:53</t>
+    <t xml:space="preserve">2021-07-19</t>
   </si>
   <si>
     <t xml:space="preserve">55.9228</t>
@@ -1650,7 +1554,7 @@
     <t xml:space="preserve">MFD04536</t>
   </si>
   <si>
-    <t xml:space="preserve">28/06/2021 05:30</t>
+    <t xml:space="preserve">2021-06-28</t>
   </si>
   <si>
     <t xml:space="preserve">56.0252</t>
@@ -1662,9 +1566,6 @@
     <t xml:space="preserve">MFD04542</t>
   </si>
   <si>
-    <t xml:space="preserve">28/06/2021 09:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0331</t>
   </si>
   <si>
@@ -1674,9 +1575,6 @@
     <t xml:space="preserve">MFD04543</t>
   </si>
   <si>
-    <t xml:space="preserve">10/06/2021 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0379</t>
   </si>
   <si>
@@ -1686,9 +1584,6 @@
     <t xml:space="preserve">MFD04544</t>
   </si>
   <si>
-    <t xml:space="preserve">30/06/2021 03:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.5802</t>
   </si>
   <si>
@@ -1698,9 +1593,6 @@
     <t xml:space="preserve">MFD04590</t>
   </si>
   <si>
-    <t xml:space="preserve">10/06/2021 05:44</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0605</t>
   </si>
   <si>
@@ -1710,7 +1602,7 @@
     <t xml:space="preserve">MFD04728</t>
   </si>
   <si>
-    <t xml:space="preserve">19/10/2021 08:40</t>
+    <t xml:space="preserve">2021-10-19</t>
   </si>
   <si>
     <t xml:space="preserve">54.9027</t>
@@ -1722,9 +1614,6 @@
     <t xml:space="preserve">MFD04767</t>
   </si>
   <si>
-    <t xml:space="preserve">23/11/2021 08:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9413</t>
   </si>
   <si>
@@ -1734,7 +1623,7 @@
     <t xml:space="preserve">MFD04895</t>
   </si>
   <si>
-    <t xml:space="preserve">20/09/2021 00:00</t>
+    <t xml:space="preserve">2021-09-20</t>
   </si>
   <si>
     <t xml:space="preserve">55.0598</t>
@@ -1746,7 +1635,7 @@
     <t xml:space="preserve">MFD04911</t>
   </si>
   <si>
-    <t xml:space="preserve">21/09/2021 08:27</t>
+    <t xml:space="preserve">2021-09-21</t>
   </si>
   <si>
     <t xml:space="preserve">54.954</t>
@@ -1758,9 +1647,6 @@
     <t xml:space="preserve">MFD04919</t>
   </si>
   <si>
-    <t xml:space="preserve">22/09/2021 04:22</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8475</t>
   </si>
   <si>
@@ -1770,7 +1656,7 @@
     <t xml:space="preserve">MFD04928</t>
   </si>
   <si>
-    <t xml:space="preserve">16/10/2021 08:02</t>
+    <t xml:space="preserve">2021-10-16</t>
   </si>
   <si>
     <t xml:space="preserve">57.192</t>
@@ -1782,9 +1668,6 @@
     <t xml:space="preserve">MFD04970</t>
   </si>
   <si>
-    <t xml:space="preserve">21/09/2021 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.951</t>
   </si>
   <si>
@@ -1794,9 +1677,6 @@
     <t xml:space="preserve">MFD04978</t>
   </si>
   <si>
-    <t xml:space="preserve">22/09/2021 06:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8256</t>
   </si>
   <si>
@@ -1806,9 +1686,6 @@
     <t xml:space="preserve">MFD04991</t>
   </si>
   <si>
-    <t xml:space="preserve">21/09/2021 05:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.8725</t>
   </si>
   <si>
@@ -1818,9 +1695,6 @@
     <t xml:space="preserve">MFD05008</t>
   </si>
   <si>
-    <t xml:space="preserve">22/09/2021 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9601</t>
   </si>
   <si>
@@ -1830,9 +1704,6 @@
     <t xml:space="preserve">MFD05068</t>
   </si>
   <si>
-    <t xml:space="preserve">22/09/2021 10:11</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.1361</t>
   </si>
   <si>
@@ -1842,7 +1713,7 @@
     <t xml:space="preserve">MFD05074</t>
   </si>
   <si>
-    <t xml:space="preserve">30/08/2021 06:06</t>
+    <t xml:space="preserve">2021-08-30</t>
   </si>
   <si>
     <t xml:space="preserve">55.5544</t>
@@ -1854,7 +1725,7 @@
     <t xml:space="preserve">MFD05377</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2021 07:56</t>
+    <t xml:space="preserve">2021-07-22</t>
   </si>
   <si>
     <t xml:space="preserve">56.9374</t>
@@ -1866,7 +1737,7 @@
     <t xml:space="preserve">MFD05414</t>
   </si>
   <si>
-    <t xml:space="preserve">13/09/2021 05:07</t>
+    <t xml:space="preserve">2021-09-13</t>
   </si>
   <si>
     <t xml:space="preserve">56.8218</t>
@@ -1878,7 +1749,7 @@
     <t xml:space="preserve">MFD05471</t>
   </si>
   <si>
-    <t xml:space="preserve">09/08/2021 07:31</t>
+    <t xml:space="preserve">2021-08-09</t>
   </si>
   <si>
     <t xml:space="preserve">55.7614</t>
@@ -1890,9 +1761,6 @@
     <t xml:space="preserve">MFD05472</t>
   </si>
   <si>
-    <t xml:space="preserve">13/09/2021 03:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8008</t>
   </si>
   <si>
@@ -1902,9 +1770,6 @@
     <t xml:space="preserve">MFD05479</t>
   </si>
   <si>
-    <t xml:space="preserve">26/07/2021 08:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5091</t>
   </si>
   <si>
@@ -1914,9 +1779,6 @@
     <t xml:space="preserve">MFD05490</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2021 05:34</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.9303</t>
   </si>
   <si>
@@ -1926,7 +1788,7 @@
     <t xml:space="preserve">MFD05491</t>
   </si>
   <si>
-    <t xml:space="preserve">20/07/2021 04:24</t>
+    <t xml:space="preserve">2021-07-20</t>
   </si>
   <si>
     <t xml:space="preserve">55.9862</t>
@@ -1938,7 +1800,7 @@
     <t xml:space="preserve">MFD05506</t>
   </si>
   <si>
-    <t xml:space="preserve">25/08/2021 05:49</t>
+    <t xml:space="preserve">2021-08-25</t>
   </si>
   <si>
     <t xml:space="preserve">55.4216</t>
@@ -1950,7 +1812,7 @@
     <t xml:space="preserve">MFD05507</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2021 07:39</t>
+    <t xml:space="preserve">2021-08-11</t>
   </si>
   <si>
     <t xml:space="preserve">55.7732</t>
@@ -1962,9 +1824,6 @@
     <t xml:space="preserve">MFD05548</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2021 11:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0725</t>
   </si>
   <si>
@@ -1974,7 +1833,7 @@
     <t xml:space="preserve">MFD05563</t>
   </si>
   <si>
-    <t xml:space="preserve">12/07/2021 05:07</t>
+    <t xml:space="preserve">2021-07-12</t>
   </si>
   <si>
     <t xml:space="preserve">55.5787</t>
@@ -1986,9 +1845,6 @@
     <t xml:space="preserve">MFD05616</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2021 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9583</t>
   </si>
   <si>
@@ -1998,7 +1854,7 @@
     <t xml:space="preserve">MFD05622</t>
   </si>
   <si>
-    <t xml:space="preserve">13/07/2021 09:04</t>
+    <t xml:space="preserve">2021-07-13</t>
   </si>
   <si>
     <t xml:space="preserve">55.1939</t>
@@ -2010,9 +1866,6 @@
     <t xml:space="preserve">MFD05634</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2021 06:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9753</t>
   </si>
   <si>
@@ -2022,9 +1875,6 @@
     <t xml:space="preserve">MFD05657</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2021 08:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0713</t>
   </si>
   <si>
@@ -2034,9 +1884,6 @@
     <t xml:space="preserve">MFD05668</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2021 04:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9757</t>
   </si>
   <si>
@@ -2046,9 +1893,6 @@
     <t xml:space="preserve">MFD05674</t>
   </si>
   <si>
-    <t xml:space="preserve">19/10/2021 08:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9018</t>
   </si>
   <si>
@@ -2058,9 +1902,6 @@
     <t xml:space="preserve">MFD05676</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2021 04:38</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0525</t>
   </si>
   <si>
@@ -2070,9 +1911,6 @@
     <t xml:space="preserve">MFD05680</t>
   </si>
   <si>
-    <t xml:space="preserve">09/08/2021 06:11</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7498</t>
   </si>
   <si>
@@ -2082,18 +1920,12 @@
     <t xml:space="preserve">MFD05700</t>
   </si>
   <si>
-    <t xml:space="preserve">09/08/2021 04:33</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.271</t>
   </si>
   <si>
     <t xml:space="preserve">MFD05713</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2021 09:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0397</t>
   </si>
   <si>
@@ -2103,9 +1935,6 @@
     <t xml:space="preserve">MFD05739</t>
   </si>
   <si>
-    <t xml:space="preserve">13/07/2021 05:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.2647</t>
   </si>
   <si>
@@ -2115,9 +1944,6 @@
     <t xml:space="preserve">MFD05755</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2021 10:20</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0408</t>
   </si>
   <si>
@@ -2127,7 +1953,7 @@
     <t xml:space="preserve">MFD09320</t>
   </si>
   <si>
-    <t xml:space="preserve">22/10/2021 04:32</t>
+    <t xml:space="preserve">2021-10-22</t>
   </si>
   <si>
     <t xml:space="preserve">55.1561</t>
@@ -2139,7 +1965,7 @@
     <t xml:space="preserve">MFD09323</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2021 08:37</t>
+    <t xml:space="preserve">2021-10-09</t>
   </si>
   <si>
     <t xml:space="preserve">54.9388</t>
@@ -2151,9 +1977,6 @@
     <t xml:space="preserve">MFD09332</t>
   </si>
   <si>
-    <t xml:space="preserve">23/11/2021 03:23</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.04</t>
   </si>
   <si>
@@ -2163,9 +1986,6 @@
     <t xml:space="preserve">MFD09336</t>
   </si>
   <si>
-    <t xml:space="preserve">22/10/2021 08:11</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.376</t>
   </si>
   <si>
@@ -2175,9 +1995,6 @@
     <t xml:space="preserve">MFD09338</t>
   </si>
   <si>
-    <t xml:space="preserve">24/11/2021 03:02</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.7398</t>
   </si>
   <si>
@@ -2187,9 +2004,6 @@
     <t xml:space="preserve">MFD09358</t>
   </si>
   <si>
-    <t xml:space="preserve">22/10/2021 05:56</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.1566</t>
   </si>
   <si>
@@ -2199,7 +2013,7 @@
     <t xml:space="preserve">MFD09372</t>
   </si>
   <si>
-    <t xml:space="preserve">06/10/2021 07:54</t>
+    <t xml:space="preserve">2021-10-06</t>
   </si>
   <si>
     <t xml:space="preserve">54.758</t>
@@ -2211,7 +2025,7 @@
     <t xml:space="preserve">MFD09378</t>
   </si>
   <si>
-    <t xml:space="preserve">14/10/2021 09:34</t>
+    <t xml:space="preserve">2021-10-14</t>
   </si>
   <si>
     <t xml:space="preserve">55.2919</t>
@@ -2223,9 +2037,6 @@
     <t xml:space="preserve">MFD09379</t>
   </si>
   <si>
-    <t xml:space="preserve">19/10/2021 07:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9031</t>
   </si>
   <si>
@@ -2235,7 +2046,7 @@
     <t xml:space="preserve">MFD09398</t>
   </si>
   <si>
-    <t xml:space="preserve">28/09/2021 07:44</t>
+    <t xml:space="preserve">2021-09-28</t>
   </si>
   <si>
     <t xml:space="preserve">55.1317</t>
@@ -2247,7 +2058,7 @@
     <t xml:space="preserve">MFD09434</t>
   </si>
   <si>
-    <t xml:space="preserve">29/09/2021 09:20</t>
+    <t xml:space="preserve">2021-09-29</t>
   </si>
   <si>
     <t xml:space="preserve">55.2683</t>
@@ -2259,9 +2070,6 @@
     <t xml:space="preserve">MFD09441</t>
   </si>
   <si>
-    <t xml:space="preserve">14/10/2021 05:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7713</t>
   </si>
   <si>
@@ -2271,9 +2079,6 @@
     <t xml:space="preserve">MFD09466</t>
   </si>
   <si>
-    <t xml:space="preserve">28/09/2021 08:52</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.1311</t>
   </si>
   <si>
@@ -2283,9 +2088,6 @@
     <t xml:space="preserve">MFD09487</t>
   </si>
   <si>
-    <t xml:space="preserve">22/10/2021 05:48</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.1576</t>
   </si>
   <si>
@@ -2295,9 +2097,6 @@
     <t xml:space="preserve">MFD09496</t>
   </si>
   <si>
-    <t xml:space="preserve">29/09/2021 10:56</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.2861</t>
   </si>
   <si>
@@ -2307,9 +2106,6 @@
     <t xml:space="preserve">MFD09531</t>
   </si>
   <si>
-    <t xml:space="preserve">28/09/2021 04:46</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.127</t>
   </si>
   <si>
@@ -2319,7 +2115,7 @@
     <t xml:space="preserve">MFD09605</t>
   </si>
   <si>
-    <t xml:space="preserve">13/10/2021 02:40</t>
+    <t xml:space="preserve">2021-10-13</t>
   </si>
   <si>
     <t xml:space="preserve">56.0009</t>
@@ -2331,9 +2127,6 @@
     <t xml:space="preserve">MFD09630</t>
   </si>
   <si>
-    <t xml:space="preserve">19/10/2021 06:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0147</t>
   </si>
   <si>
@@ -2343,9 +2136,6 @@
     <t xml:space="preserve">MFD09633</t>
   </si>
   <si>
-    <t xml:space="preserve">13/10/2021 02:15</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0143</t>
   </si>
   <si>
@@ -2355,9 +2145,6 @@
     <t xml:space="preserve">MFD09672</t>
   </si>
   <si>
-    <t xml:space="preserve">13/10/2021 01:52</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0223</t>
   </si>
   <si>
@@ -2367,9 +2154,6 @@
     <t xml:space="preserve">MFD09710</t>
   </si>
   <si>
-    <t xml:space="preserve">23/11/2021 09:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9099</t>
   </si>
   <si>
@@ -2379,9 +2163,6 @@
     <t xml:space="preserve">MFD09750</t>
   </si>
   <si>
-    <t xml:space="preserve">24/11/2021 04:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.7313</t>
   </si>
   <si>
@@ -2391,9 +2172,6 @@
     <t xml:space="preserve">MFD09810</t>
   </si>
   <si>
-    <t xml:space="preserve">23/11/2021 09:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9502</t>
   </si>
   <si>
@@ -2403,18 +2181,12 @@
     <t xml:space="preserve">MFD09872</t>
   </si>
   <si>
-    <t xml:space="preserve">24/11/2021 05:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.6672</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09883</t>
   </si>
   <si>
-    <t xml:space="preserve">24/11/2021 05:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.7082</t>
   </si>
   <si>
@@ -2424,7 +2196,7 @@
     <t xml:space="preserve">MFD00011</t>
   </si>
   <si>
-    <t xml:space="preserve">03/09/2019 00:00</t>
+    <t xml:space="preserve">2019-09-03</t>
   </si>
   <si>
     <t xml:space="preserve">57.3858</t>
@@ -2523,7 +2295,7 @@
     <t xml:space="preserve">MFD00096</t>
   </si>
   <si>
-    <t xml:space="preserve">05/09/2019 00:00</t>
+    <t xml:space="preserve">2019-09-05</t>
   </si>
   <si>
     <t xml:space="preserve">57.0408</t>
@@ -2658,7 +2430,7 @@
     <t xml:space="preserve">MFD00638</t>
   </si>
   <si>
-    <t xml:space="preserve">08/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-08</t>
   </si>
   <si>
     <t xml:space="preserve">55.8746</t>
@@ -2721,7 +2493,7 @@
     <t xml:space="preserve">MFD00963</t>
   </si>
   <si>
-    <t xml:space="preserve">18/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-18</t>
   </si>
   <si>
     <t xml:space="preserve">55.9356</t>
@@ -2757,7 +2529,7 @@
     <t xml:space="preserve">MFD00995</t>
   </si>
   <si>
-    <t xml:space="preserve">02/06/2020 00:00</t>
+    <t xml:space="preserve">2020-06-02</t>
   </si>
   <si>
     <t xml:space="preserve">9.7582</t>
@@ -2769,7 +2541,7 @@
     <t xml:space="preserve">MFD00998</t>
   </si>
   <si>
-    <t xml:space="preserve">09/06/2020 00:00</t>
+    <t xml:space="preserve">2020-06-09</t>
   </si>
   <si>
     <t xml:space="preserve">56.3592</t>
@@ -2805,7 +2577,7 @@
     <t xml:space="preserve">MFD01028</t>
   </si>
   <si>
-    <t xml:space="preserve">08/06/2020 00:00</t>
+    <t xml:space="preserve">2020-06-08</t>
   </si>
   <si>
     <t xml:space="preserve">56.3107</t>
@@ -2868,7 +2640,7 @@
     <t xml:space="preserve">MFD01077</t>
   </si>
   <si>
-    <t xml:space="preserve">19/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-19</t>
   </si>
   <si>
     <t xml:space="preserve">55.9268</t>
@@ -3000,7 +2772,7 @@
     <t xml:space="preserve">MFD01283</t>
   </si>
   <si>
-    <t xml:space="preserve">06/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-06</t>
   </si>
   <si>
     <t xml:space="preserve">55.9612</t>
@@ -3015,7 +2787,7 @@
     <t xml:space="preserve">MFD01301</t>
   </si>
   <si>
-    <t xml:space="preserve">15/05/2020 00:00</t>
+    <t xml:space="preserve">2020-05-15</t>
   </si>
   <si>
     <t xml:space="preserve">55.7453</t>
@@ -3069,7 +2841,7 @@
     <t xml:space="preserve">MFD01565</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-15</t>
   </si>
   <si>
     <t xml:space="preserve">55.4813</t>
@@ -3084,7 +2856,7 @@
     <t xml:space="preserve">MFD01595</t>
   </si>
   <si>
-    <t xml:space="preserve">23/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-23</t>
   </si>
   <si>
     <t xml:space="preserve">56.1784</t>
@@ -3129,7 +2901,7 @@
     <t xml:space="preserve">MFD02193</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-22</t>
   </si>
   <si>
     <t xml:space="preserve">56.2702</t>
@@ -3180,9 +2952,6 @@
     <t xml:space="preserve">MFD02514</t>
   </si>
   <si>
-    <t xml:space="preserve">16/09/2020 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.662</t>
   </si>
   <si>
@@ -3195,7 +2964,7 @@
     <t xml:space="preserve">MFD02534</t>
   </si>
   <si>
-    <t xml:space="preserve">06/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-06</t>
   </si>
   <si>
     <t xml:space="preserve">55.5231</t>
@@ -6162,13 +5931,13 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" t="s">
         <v>256</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>257</v>
-      </c>
-      <c r="E62" t="s">
-        <v>258</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -6198,19 +5967,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
         <v>259</v>
       </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>260</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>261</v>
-      </c>
-      <c r="E63" t="s">
-        <v>262</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -6219,7 +5988,7 @@
         <v>34</v>
       </c>
       <c r="H63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -6240,19 +6009,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
         <v>264</v>
       </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>265</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>266</v>
-      </c>
-      <c r="E64" t="s">
-        <v>267</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -6280,19 +6049,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
         <v>268</v>
       </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>269</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>270</v>
-      </c>
-      <c r="E65" t="s">
-        <v>271</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -6322,19 +6091,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
         <v>272</v>
       </c>
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>273</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>274</v>
-      </c>
-      <c r="E66" t="s">
-        <v>275</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -6364,19 +6133,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
         <v>276</v>
       </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>277</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>278</v>
-      </c>
-      <c r="E67" t="s">
-        <v>279</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -6406,19 +6175,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
         <v>280</v>
       </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>281</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>282</v>
-      </c>
-      <c r="E68" t="s">
-        <v>283</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -6448,19 +6217,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
         <v>284</v>
       </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>285</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>286</v>
-      </c>
-      <c r="E69" t="s">
-        <v>287</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -6488,19 +6257,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
         <v>288</v>
       </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>289</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>290</v>
-      </c>
-      <c r="E70" t="s">
-        <v>291</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -6528,19 +6297,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" t="s">
         <v>292</v>
       </c>
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>293</v>
-      </c>
-      <c r="D71" t="s">
-        <v>294</v>
-      </c>
-      <c r="E71" t="s">
-        <v>295</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -6568,19 +6337,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>294</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" t="s">
         <v>296</v>
-      </c>
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>297</v>
-      </c>
-      <c r="D72" t="s">
-        <v>298</v>
-      </c>
-      <c r="E72" t="s">
-        <v>299</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -6610,19 +6379,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -6631,7 +6400,7 @@
         <v>34</v>
       </c>
       <c r="H73" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -6652,19 +6421,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D74" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E74" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -6692,19 +6461,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D75" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -6732,19 +6501,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D76" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E76" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -6772,19 +6541,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D77" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E77" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -6814,19 +6583,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E78" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -6854,19 +6623,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="D79" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E79" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -6896,19 +6665,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E80" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -6936,19 +6705,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D81" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -6978,19 +6747,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="D82" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E82" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -7020,19 +6789,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D83" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E83" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -7062,19 +6831,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D84" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E84" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -7102,19 +6871,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D85" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E85" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -7144,19 +6913,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="D86" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E86" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -7184,19 +6953,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="D87" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E87" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -7224,19 +6993,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D88" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E88" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -7266,19 +7035,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E89" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -7306,19 +7075,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="D90" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E90" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -7346,19 +7115,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D91" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E91" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -7386,19 +7155,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>280</v>
       </c>
       <c r="D92" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E92" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -7426,19 +7195,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E93" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -7466,19 +7235,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E94" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -7508,19 +7277,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>390</v>
+        <v>264</v>
       </c>
       <c r="D95" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E95" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -7548,19 +7317,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D96" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E96" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -7590,19 +7359,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D97" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E97" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -7632,19 +7401,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="E98" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -7674,19 +7443,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D99" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -7714,19 +7483,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>410</v>
+        <v>264</v>
       </c>
       <c r="D100" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="E100" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -7754,19 +7523,19 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D101" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E101" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -7796,19 +7565,19 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D102" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E102" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -7836,19 +7605,19 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D103" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E103" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -7876,19 +7645,19 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="D104" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="E104" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -7916,19 +7685,19 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D105" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="E105" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -7958,19 +7727,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D106" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="E106" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -8000,19 +7769,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="E107" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -8042,19 +7811,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="D108" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="E108" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -8084,19 +7853,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="D109" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="E109" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -8126,19 +7895,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D110" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="E110" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -8147,7 +7916,7 @@
         <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -8168,19 +7937,19 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="D111" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="E111" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -8210,19 +7979,19 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="D112" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="E112" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -8252,19 +8021,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="D113" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="E113" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -8294,19 +8063,19 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="D114" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E114" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -8336,19 +8105,19 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="D115" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="E115" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -8378,19 +8147,19 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>473</v>
+        <v>240</v>
       </c>
       <c r="D116" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="E116" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -8420,19 +8189,19 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="D117" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="E117" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -8462,19 +8231,19 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="D118" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="E118" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -8504,19 +8273,19 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D119" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="E119" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -8546,19 +8315,19 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="D120" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="E120" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -8586,19 +8355,19 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D121" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="E121" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -8628,19 +8397,19 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="D122" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="E122" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
@@ -8670,19 +8439,19 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D123" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="E123" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
@@ -8712,19 +8481,19 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="D124" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="E124" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
@@ -8752,19 +8521,19 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D125" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="E125" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -8792,19 +8561,19 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D126" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="E126" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -8834,19 +8603,19 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="D127" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="E127" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -8876,19 +8645,19 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="D128" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E128" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
@@ -8918,19 +8687,19 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="D129" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="E129" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
@@ -8960,19 +8729,19 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>529</v>
+        <v>318</v>
       </c>
       <c r="D130" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="E130" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
@@ -9002,19 +8771,19 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="D131" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="E131" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -9042,19 +8811,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="D132" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="E132" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
@@ -9082,19 +8851,19 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="D133" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="E133" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
@@ -9124,19 +8893,19 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="D134" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="E134" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
@@ -9164,19 +8933,19 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="D135" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="E135" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
@@ -9204,19 +8973,19 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
       <c r="D136" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="E136" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
@@ -9246,19 +9015,19 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>557</v>
+        <v>479</v>
       </c>
       <c r="D137" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="E137" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
@@ -9286,19 +9055,19 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
       <c r="D138" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="E138" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
@@ -9328,19 +9097,19 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="D139" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="E139" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
@@ -9368,19 +9137,19 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>569</v>
+        <v>288</v>
       </c>
       <c r="D140" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="E140" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
@@ -9410,19 +9179,19 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="D141" t="s">
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="E141" t="s">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="F141" t="s">
         <v>19</v>
@@ -9452,19 +9221,19 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="B142" t="s">
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="D142" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="E142" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="F142" t="s">
         <v>19</v>
@@ -9494,19 +9263,19 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="B143" t="s">
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>581</v>
+        <v>461</v>
       </c>
       <c r="D143" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="E143" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="F143" t="s">
         <v>19</v>
@@ -9534,19 +9303,19 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="B144" t="s">
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="D144" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="E144" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -9576,19 +9345,19 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="B145" t="s">
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="D145" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="E145" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="F145" t="s">
         <v>19</v>
@@ -9618,19 +9387,19 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="B146" t="s">
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>593</v>
+        <v>461</v>
       </c>
       <c r="D146" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="E146" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -9660,19 +9429,19 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="D147" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="E147" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
@@ -9700,19 +9469,19 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="B148" t="s">
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>601</v>
+        <v>461</v>
       </c>
       <c r="D148" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="E148" t="s">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
@@ -9742,19 +9511,19 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="D149" t="s">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="E149" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -9784,19 +9553,19 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>608</v>
+        <v>565</v>
       </c>
       <c r="B150" t="s">
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>609</v>
+        <v>566</v>
       </c>
       <c r="D150" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="E150" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -9826,19 +9595,19 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="D151" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="E151" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
@@ -9866,19 +9635,19 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="D152" t="s">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="E152" t="s">
-        <v>619</v>
+        <v>576</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -9908,19 +9677,19 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>620</v>
+        <v>577</v>
       </c>
       <c r="B153" t="s">
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="D153" t="s">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="E153" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -9948,19 +9717,19 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>624</v>
+        <v>581</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>625</v>
+        <v>574</v>
       </c>
       <c r="D154" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="E154" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -9990,19 +9759,19 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="B155" t="s">
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>629</v>
+        <v>244</v>
       </c>
       <c r="D155" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E155" t="s">
-        <v>631</v>
+        <v>586</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -10032,19 +9801,19 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>632</v>
+        <v>587</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
       <c r="D156" t="s">
-        <v>634</v>
+        <v>588</v>
       </c>
       <c r="E156" t="s">
-        <v>635</v>
+        <v>589</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -10074,19 +9843,19 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>636</v>
+        <v>590</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>637</v>
+        <v>591</v>
       </c>
       <c r="D157" t="s">
-        <v>638</v>
+        <v>592</v>
       </c>
       <c r="E157" t="s">
-        <v>639</v>
+        <v>593</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -10114,19 +9883,19 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="B158" t="s">
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>641</v>
+        <v>595</v>
       </c>
       <c r="D158" t="s">
-        <v>642</v>
+        <v>596</v>
       </c>
       <c r="E158" t="s">
-        <v>643</v>
+        <v>597</v>
       </c>
       <c r="F158" t="s">
         <v>19</v>
@@ -10156,19 +9925,19 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>644</v>
+        <v>598</v>
       </c>
       <c r="B159" t="s">
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>645</v>
+        <v>599</v>
       </c>
       <c r="D159" t="s">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="E159" t="s">
-        <v>647</v>
+        <v>601</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -10198,19 +9967,19 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>648</v>
+        <v>602</v>
       </c>
       <c r="B160" t="s">
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>649</v>
+        <v>483</v>
       </c>
       <c r="D160" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="E160" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -10240,19 +10009,19 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="D161" t="s">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="E161" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -10282,19 +10051,19 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="B162" t="s">
         <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>657</v>
+        <v>502</v>
       </c>
       <c r="D162" t="s">
-        <v>658</v>
+        <v>610</v>
       </c>
       <c r="E162" t="s">
-        <v>659</v>
+        <v>611</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -10322,19 +10091,19 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>660</v>
+        <v>612</v>
       </c>
       <c r="B163" t="s">
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>661</v>
+        <v>613</v>
       </c>
       <c r="D163" t="s">
-        <v>662</v>
+        <v>614</v>
       </c>
       <c r="E163" t="s">
-        <v>663</v>
+        <v>615</v>
       </c>
       <c r="F163" t="s">
         <v>19</v>
@@ -10362,19 +10131,19 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>664</v>
+        <v>616</v>
       </c>
       <c r="B164" t="s">
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>665</v>
+        <v>502</v>
       </c>
       <c r="D164" t="s">
-        <v>666</v>
+        <v>617</v>
       </c>
       <c r="E164" t="s">
-        <v>667</v>
+        <v>618</v>
       </c>
       <c r="F164" t="s">
         <v>19</v>
@@ -10404,19 +10173,19 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>668</v>
+        <v>619</v>
       </c>
       <c r="B165" t="s">
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>669</v>
+        <v>483</v>
       </c>
       <c r="D165" t="s">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="E165" t="s">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="F165" t="s">
         <v>19</v>
@@ -10444,19 +10213,19 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>672</v>
+        <v>622</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>673</v>
+        <v>502</v>
       </c>
       <c r="D166" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="E166" t="s">
-        <v>675</v>
+        <v>624</v>
       </c>
       <c r="F166" t="s">
         <v>19</v>
@@ -10486,19 +10255,19 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>676</v>
+        <v>625</v>
       </c>
       <c r="B167" t="s">
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>677</v>
+        <v>529</v>
       </c>
       <c r="D167" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="E167" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="F167" t="s">
         <v>19</v>
@@ -10526,19 +10295,19 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="B168" t="s">
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>681</v>
+        <v>483</v>
       </c>
       <c r="D168" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="E168" t="s">
-        <v>683</v>
+        <v>630</v>
       </c>
       <c r="F168" t="s">
         <v>19</v>
@@ -10568,19 +10337,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>684</v>
+        <v>631</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>685</v>
+        <v>578</v>
       </c>
       <c r="D169" t="s">
-        <v>686</v>
+        <v>632</v>
       </c>
       <c r="E169" t="s">
-        <v>687</v>
+        <v>633</v>
       </c>
       <c r="F169" t="s">
         <v>19</v>
@@ -10608,19 +10377,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>688</v>
+        <v>634</v>
       </c>
       <c r="B170" t="s">
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>689</v>
+        <v>578</v>
       </c>
       <c r="D170" t="s">
         <v>181</v>
       </c>
       <c r="E170" t="s">
-        <v>690</v>
+        <v>635</v>
       </c>
       <c r="F170" t="s">
         <v>19</v>
@@ -10648,19 +10417,19 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>691</v>
+        <v>636</v>
       </c>
       <c r="B171" t="s">
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>692</v>
+        <v>502</v>
       </c>
       <c r="D171" t="s">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="E171" t="s">
-        <v>694</v>
+        <v>638</v>
       </c>
       <c r="F171" t="s">
         <v>19</v>
@@ -10690,19 +10459,19 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>695</v>
+        <v>639</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>696</v>
+        <v>613</v>
       </c>
       <c r="D172" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="E172" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
       <c r="F172" t="s">
         <v>19</v>
@@ -10730,19 +10499,19 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="B173" t="s">
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>700</v>
+        <v>502</v>
       </c>
       <c r="D173" t="s">
-        <v>701</v>
+        <v>643</v>
       </c>
       <c r="E173" t="s">
-        <v>702</v>
+        <v>644</v>
       </c>
       <c r="F173" t="s">
         <v>19</v>
@@ -10770,19 +10539,19 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>703</v>
+        <v>645</v>
       </c>
       <c r="B174" t="s">
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>704</v>
+        <v>646</v>
       </c>
       <c r="D174" t="s">
-        <v>705</v>
+        <v>647</v>
       </c>
       <c r="E174" t="s">
-        <v>706</v>
+        <v>648</v>
       </c>
       <c r="F174" t="s">
         <v>19</v>
@@ -10812,19 +10581,19 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>707</v>
+        <v>649</v>
       </c>
       <c r="B175" t="s">
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>708</v>
+        <v>650</v>
       </c>
       <c r="D175" t="s">
-        <v>709</v>
+        <v>651</v>
       </c>
       <c r="E175" t="s">
-        <v>710</v>
+        <v>652</v>
       </c>
       <c r="F175" t="s">
         <v>19</v>
@@ -10854,19 +10623,19 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>711</v>
+        <v>653</v>
       </c>
       <c r="B176" t="s">
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>712</v>
+        <v>288</v>
       </c>
       <c r="D176" t="s">
-        <v>713</v>
+        <v>654</v>
       </c>
       <c r="E176" t="s">
-        <v>714</v>
+        <v>655</v>
       </c>
       <c r="F176" t="s">
         <v>19</v>
@@ -10894,19 +10663,19 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>715</v>
+        <v>656</v>
       </c>
       <c r="B177" t="s">
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>716</v>
+        <v>646</v>
       </c>
       <c r="D177" t="s">
-        <v>717</v>
+        <v>657</v>
       </c>
       <c r="E177" t="s">
-        <v>718</v>
+        <v>658</v>
       </c>
       <c r="F177" t="s">
         <v>19</v>
@@ -10936,19 +10705,19 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>719</v>
+        <v>659</v>
       </c>
       <c r="B178" t="s">
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>720</v>
+        <v>469</v>
       </c>
       <c r="D178" t="s">
-        <v>721</v>
+        <v>660</v>
       </c>
       <c r="E178" t="s">
-        <v>722</v>
+        <v>661</v>
       </c>
       <c r="F178" t="s">
         <v>19</v>
@@ -10978,19 +10747,19 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>723</v>
+        <v>662</v>
       </c>
       <c r="B179" t="s">
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>724</v>
+        <v>646</v>
       </c>
       <c r="D179" t="s">
-        <v>725</v>
+        <v>663</v>
       </c>
       <c r="E179" t="s">
-        <v>726</v>
+        <v>664</v>
       </c>
       <c r="F179" t="s">
         <v>19</v>
@@ -11020,19 +10789,19 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
       <c r="B180" t="s">
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>728</v>
+        <v>666</v>
       </c>
       <c r="D180" t="s">
-        <v>729</v>
+        <v>667</v>
       </c>
       <c r="E180" t="s">
-        <v>730</v>
+        <v>668</v>
       </c>
       <c r="F180" t="s">
         <v>19</v>
@@ -11060,19 +10829,19 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>731</v>
+        <v>669</v>
       </c>
       <c r="B181" t="s">
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>732</v>
+        <v>670</v>
       </c>
       <c r="D181" t="s">
-        <v>733</v>
+        <v>671</v>
       </c>
       <c r="E181" t="s">
-        <v>734</v>
+        <v>672</v>
       </c>
       <c r="F181" t="s">
         <v>19</v>
@@ -11102,19 +10871,19 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>735</v>
+        <v>673</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>736</v>
+        <v>529</v>
       </c>
       <c r="D182" t="s">
-        <v>737</v>
+        <v>674</v>
       </c>
       <c r="E182" t="s">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="F182" t="s">
         <v>19</v>
@@ -11144,19 +10913,19 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>739</v>
+        <v>676</v>
       </c>
       <c r="B183" t="s">
         <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>740</v>
+        <v>677</v>
       </c>
       <c r="D183" t="s">
-        <v>741</v>
+        <v>678</v>
       </c>
       <c r="E183" t="s">
-        <v>742</v>
+        <v>679</v>
       </c>
       <c r="F183" t="s">
         <v>19</v>
@@ -11186,19 +10955,19 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>743</v>
+        <v>680</v>
       </c>
       <c r="B184" t="s">
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>744</v>
+        <v>681</v>
       </c>
       <c r="D184" t="s">
-        <v>745</v>
+        <v>682</v>
       </c>
       <c r="E184" t="s">
-        <v>746</v>
+        <v>683</v>
       </c>
       <c r="F184" t="s">
         <v>19</v>
@@ -11228,19 +10997,19 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="B185" t="s">
         <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>748</v>
+        <v>670</v>
       </c>
       <c r="D185" t="s">
-        <v>749</v>
+        <v>685</v>
       </c>
       <c r="E185" t="s">
-        <v>750</v>
+        <v>686</v>
       </c>
       <c r="F185" t="s">
         <v>19</v>
@@ -11270,19 +11039,19 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>751</v>
+        <v>687</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>752</v>
+        <v>677</v>
       </c>
       <c r="D186" t="s">
-        <v>753</v>
+        <v>688</v>
       </c>
       <c r="E186" t="s">
-        <v>754</v>
+        <v>689</v>
       </c>
       <c r="F186" t="s">
         <v>19</v>
@@ -11310,19 +11079,19 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>755</v>
+        <v>690</v>
       </c>
       <c r="B187" t="s">
         <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>756</v>
+        <v>646</v>
       </c>
       <c r="D187" t="s">
-        <v>757</v>
+        <v>691</v>
       </c>
       <c r="E187" t="s">
-        <v>758</v>
+        <v>692</v>
       </c>
       <c r="F187" t="s">
         <v>19</v>
@@ -11352,19 +11121,19 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>759</v>
+        <v>693</v>
       </c>
       <c r="B188" t="s">
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>760</v>
+        <v>681</v>
       </c>
       <c r="D188" t="s">
-        <v>761</v>
+        <v>694</v>
       </c>
       <c r="E188" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="F188" t="s">
         <v>19</v>
@@ -11394,19 +11163,19 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>763</v>
+        <v>696</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>764</v>
+        <v>677</v>
       </c>
       <c r="D189" t="s">
-        <v>765</v>
+        <v>697</v>
       </c>
       <c r="E189" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
       <c r="F189" t="s">
         <v>19</v>
@@ -11436,19 +11205,19 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>767</v>
+        <v>699</v>
       </c>
       <c r="B190" t="s">
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>768</v>
+        <v>700</v>
       </c>
       <c r="D190" t="s">
-        <v>769</v>
+        <v>701</v>
       </c>
       <c r="E190" t="s">
-        <v>770</v>
+        <v>702</v>
       </c>
       <c r="F190" t="s">
         <v>19</v>
@@ -11478,19 +11247,19 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>771</v>
+        <v>703</v>
       </c>
       <c r="B191" t="s">
         <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>772</v>
+        <v>529</v>
       </c>
       <c r="D191" t="s">
-        <v>773</v>
+        <v>704</v>
       </c>
       <c r="E191" t="s">
-        <v>774</v>
+        <v>705</v>
       </c>
       <c r="F191" t="s">
         <v>19</v>
@@ -11518,19 +11287,19 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>775</v>
+        <v>706</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>776</v>
+        <v>700</v>
       </c>
       <c r="D192" t="s">
-        <v>777</v>
+        <v>707</v>
       </c>
       <c r="E192" t="s">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="F192" t="s">
         <v>19</v>
@@ -11560,19 +11329,19 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="B193" t="s">
         <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>780</v>
+        <v>700</v>
       </c>
       <c r="D193" t="s">
-        <v>781</v>
+        <v>710</v>
       </c>
       <c r="E193" t="s">
-        <v>782</v>
+        <v>711</v>
       </c>
       <c r="F193" t="s">
         <v>19</v>
@@ -11600,19 +11369,19 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>783</v>
+        <v>712</v>
       </c>
       <c r="B194" t="s">
         <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>784</v>
+        <v>288</v>
       </c>
       <c r="D194" t="s">
-        <v>785</v>
+        <v>713</v>
       </c>
       <c r="E194" t="s">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="F194" t="s">
         <v>19</v>
@@ -11640,19 +11409,19 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>787</v>
+        <v>715</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>788</v>
+        <v>469</v>
       </c>
       <c r="D195" t="s">
-        <v>789</v>
+        <v>716</v>
       </c>
       <c r="E195" t="s">
-        <v>790</v>
+        <v>717</v>
       </c>
       <c r="F195" t="s">
         <v>19</v>
@@ -11682,19 +11451,19 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>791</v>
+        <v>718</v>
       </c>
       <c r="B196" t="s">
         <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>792</v>
+        <v>288</v>
       </c>
       <c r="D196" t="s">
-        <v>793</v>
+        <v>719</v>
       </c>
       <c r="E196" t="s">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F196" t="s">
         <v>19</v>
@@ -11724,19 +11493,19 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>795</v>
+        <v>721</v>
       </c>
       <c r="B197" t="s">
         <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>796</v>
+        <v>469</v>
       </c>
       <c r="D197" t="s">
-        <v>797</v>
+        <v>722</v>
       </c>
       <c r="E197" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="F197" t="s">
         <v>19</v>
@@ -11764,19 +11533,19 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>798</v>
+        <v>723</v>
       </c>
       <c r="B198" t="s">
         <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>799</v>
+        <v>469</v>
       </c>
       <c r="D198" t="s">
-        <v>800</v>
+        <v>724</v>
       </c>
       <c r="E198" t="s">
-        <v>801</v>
+        <v>725</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
@@ -11806,19 +11575,19 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>802</v>
+        <v>726</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>803</v>
+        <v>727</v>
       </c>
       <c r="D199" t="s">
-        <v>804</v>
+        <v>728</v>
       </c>
       <c r="E199" t="s">
-        <v>805</v>
+        <v>729</v>
       </c>
       <c r="F199" t="s">
         <v>19</v>
@@ -11827,7 +11596,7 @@
         <v>47</v>
       </c>
       <c r="H199" t="s">
-        <v>806</v>
+        <v>730</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -11850,19 +11619,19 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>807</v>
+        <v>731</v>
       </c>
       <c r="B200" t="s">
         <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>803</v>
+        <v>727</v>
       </c>
       <c r="D200" t="s">
-        <v>808</v>
+        <v>732</v>
       </c>
       <c r="E200" t="s">
-        <v>809</v>
+        <v>733</v>
       </c>
       <c r="F200" t="s">
         <v>19</v>
@@ -11871,7 +11640,7 @@
         <v>47</v>
       </c>
       <c r="H200" t="s">
-        <v>810</v>
+        <v>734</v>
       </c>
       <c r="I200" t="s">
         <v>22</v>
@@ -11894,19 +11663,19 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>811</v>
+        <v>735</v>
       </c>
       <c r="B201" t="s">
         <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>803</v>
+        <v>727</v>
       </c>
       <c r="D201" t="s">
-        <v>812</v>
+        <v>736</v>
       </c>
       <c r="E201" t="s">
-        <v>813</v>
+        <v>737</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
@@ -11915,7 +11684,7 @@
         <v>47</v>
       </c>
       <c r="H201" t="s">
-        <v>814</v>
+        <v>738</v>
       </c>
       <c r="I201" t="s">
         <v>22</v>
@@ -11938,7 +11707,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>815</v>
+        <v>739</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
@@ -11947,10 +11716,10 @@
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>816</v>
+        <v>740</v>
       </c>
       <c r="E202" t="s">
-        <v>817</v>
+        <v>741</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
@@ -11959,7 +11728,7 @@
         <v>47</v>
       </c>
       <c r="H202" t="s">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="I202" t="s">
         <v>22</v>
@@ -11982,7 +11751,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>819</v>
+        <v>743</v>
       </c>
       <c r="B203" t="s">
         <v>15</v>
@@ -11991,10 +11760,10 @@
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>820</v>
+        <v>744</v>
       </c>
       <c r="E203" t="s">
-        <v>821</v>
+        <v>745</v>
       </c>
       <c r="F203" t="s">
         <v>19</v>
@@ -12003,7 +11772,7 @@
         <v>129</v>
       </c>
       <c r="H203" t="s">
-        <v>822</v>
+        <v>746</v>
       </c>
       <c r="I203" t="s">
         <v>22</v>
@@ -12026,7 +11795,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>823</v>
+        <v>747</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
@@ -12035,10 +11804,10 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>824</v>
+        <v>748</v>
       </c>
       <c r="E204" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
       <c r="F204" t="s">
         <v>19</v>
@@ -12047,7 +11816,7 @@
         <v>143</v>
       </c>
       <c r="H204" t="s">
-        <v>826</v>
+        <v>750</v>
       </c>
       <c r="I204" t="s">
         <v>22</v>
@@ -12070,7 +11839,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>827</v>
+        <v>751</v>
       </c>
       <c r="B205" t="s">
         <v>15</v>
@@ -12079,10 +11848,10 @@
         <v>39</v>
       </c>
       <c r="D205" t="s">
-        <v>828</v>
+        <v>752</v>
       </c>
       <c r="E205" t="s">
-        <v>829</v>
+        <v>753</v>
       </c>
       <c r="F205" t="s">
         <v>19</v>
@@ -12091,7 +11860,7 @@
         <v>47</v>
       </c>
       <c r="H205" t="s">
-        <v>830</v>
+        <v>754</v>
       </c>
       <c r="I205" t="s">
         <v>22</v>
@@ -12114,7 +11883,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>831</v>
+        <v>755</v>
       </c>
       <c r="B206" t="s">
         <v>15</v>
@@ -12123,10 +11892,10 @@
         <v>39</v>
       </c>
       <c r="D206" t="s">
-        <v>832</v>
+        <v>756</v>
       </c>
       <c r="E206" t="s">
-        <v>833</v>
+        <v>757</v>
       </c>
       <c r="F206" t="s">
         <v>19</v>
@@ -12135,7 +11904,7 @@
         <v>129</v>
       </c>
       <c r="H206" t="s">
-        <v>834</v>
+        <v>758</v>
       </c>
       <c r="I206" t="s">
         <v>22</v>
@@ -12158,19 +11927,19 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>835</v>
+        <v>759</v>
       </c>
       <c r="B207" t="s">
         <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>836</v>
+        <v>760</v>
       </c>
       <c r="D207" t="s">
-        <v>837</v>
+        <v>761</v>
       </c>
       <c r="E207" t="s">
-        <v>838</v>
+        <v>762</v>
       </c>
       <c r="F207" t="s">
         <v>19</v>
@@ -12179,7 +11948,7 @@
         <v>47</v>
       </c>
       <c r="H207" t="s">
-        <v>839</v>
+        <v>763</v>
       </c>
       <c r="I207" t="s">
         <v>22</v>
@@ -12202,7 +11971,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>840</v>
+        <v>764</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
@@ -12211,10 +11980,10 @@
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>841</v>
+        <v>765</v>
       </c>
       <c r="E208" t="s">
-        <v>842</v>
+        <v>766</v>
       </c>
       <c r="F208" t="s">
         <v>19</v>
@@ -12223,7 +11992,7 @@
         <v>129</v>
       </c>
       <c r="H208" t="s">
-        <v>843</v>
+        <v>767</v>
       </c>
       <c r="I208" t="s">
         <v>22</v>
@@ -12246,7 +12015,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>844</v>
+        <v>768</v>
       </c>
       <c r="B209" t="s">
         <v>15</v>
@@ -12255,10 +12024,10 @@
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>845</v>
+        <v>769</v>
       </c>
       <c r="E209" t="s">
-        <v>846</v>
+        <v>770</v>
       </c>
       <c r="F209" t="s">
         <v>19</v>
@@ -12267,7 +12036,7 @@
         <v>47</v>
       </c>
       <c r="H209" t="s">
-        <v>847</v>
+        <v>771</v>
       </c>
       <c r="I209" t="s">
         <v>22</v>
@@ -12290,7 +12059,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>848</v>
+        <v>772</v>
       </c>
       <c r="B210" t="s">
         <v>15</v>
@@ -12299,10 +12068,10 @@
         <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>849</v>
+        <v>773</v>
       </c>
       <c r="E210" t="s">
-        <v>850</v>
+        <v>774</v>
       </c>
       <c r="F210" t="s">
         <v>19</v>
@@ -12311,7 +12080,7 @@
         <v>143</v>
       </c>
       <c r="H210" t="s">
-        <v>851</v>
+        <v>775</v>
       </c>
       <c r="I210" t="s">
         <v>22</v>
@@ -12334,7 +12103,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>852</v>
+        <v>776</v>
       </c>
       <c r="B211" t="s">
         <v>15</v>
@@ -12343,10 +12112,10 @@
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>853</v>
+        <v>777</v>
       </c>
       <c r="E211" t="s">
-        <v>854</v>
+        <v>778</v>
       </c>
       <c r="F211" t="s">
         <v>19</v>
@@ -12355,7 +12124,7 @@
         <v>129</v>
       </c>
       <c r="H211" t="s">
-        <v>855</v>
+        <v>779</v>
       </c>
       <c r="I211" t="s">
         <v>22</v>
@@ -12378,7 +12147,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>856</v>
+        <v>780</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
@@ -12387,10 +12156,10 @@
         <v>39</v>
       </c>
       <c r="D212" t="s">
-        <v>857</v>
+        <v>781</v>
       </c>
       <c r="E212" t="s">
-        <v>858</v>
+        <v>782</v>
       </c>
       <c r="F212" t="s">
         <v>19</v>
@@ -12399,7 +12168,7 @@
         <v>47</v>
       </c>
       <c r="H212" t="s">
-        <v>859</v>
+        <v>783</v>
       </c>
       <c r="I212" t="s">
         <v>22</v>
@@ -12422,19 +12191,19 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>860</v>
+        <v>784</v>
       </c>
       <c r="B213" t="s">
         <v>15</v>
       </c>
       <c r="C213" t="s">
-        <v>803</v>
+        <v>727</v>
       </c>
       <c r="D213" t="s">
-        <v>861</v>
+        <v>785</v>
       </c>
       <c r="E213" t="s">
-        <v>862</v>
+        <v>786</v>
       </c>
       <c r="F213" t="s">
         <v>19</v>
@@ -12443,7 +12212,7 @@
         <v>47</v>
       </c>
       <c r="H213" t="s">
-        <v>863</v>
+        <v>787</v>
       </c>
       <c r="I213" t="s">
         <v>22</v>
@@ -12466,7 +12235,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>864</v>
+        <v>788</v>
       </c>
       <c r="B214" t="s">
         <v>15</v>
@@ -12475,10 +12244,10 @@
         <v>39</v>
       </c>
       <c r="D214" t="s">
-        <v>865</v>
+        <v>789</v>
       </c>
       <c r="E214" t="s">
-        <v>866</v>
+        <v>790</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
@@ -12487,7 +12256,7 @@
         <v>47</v>
       </c>
       <c r="H214" t="s">
-        <v>867</v>
+        <v>791</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
@@ -12510,7 +12279,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>868</v>
+        <v>792</v>
       </c>
       <c r="B215" t="s">
         <v>15</v>
@@ -12519,10 +12288,10 @@
         <v>39</v>
       </c>
       <c r="D215" t="s">
-        <v>869</v>
+        <v>793</v>
       </c>
       <c r="E215" t="s">
-        <v>870</v>
+        <v>794</v>
       </c>
       <c r="F215" t="s">
         <v>19</v>
@@ -12531,7 +12300,7 @@
         <v>143</v>
       </c>
       <c r="H215" t="s">
-        <v>871</v>
+        <v>795</v>
       </c>
       <c r="I215" t="s">
         <v>22</v>
@@ -12554,7 +12323,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>872</v>
+        <v>796</v>
       </c>
       <c r="B216" t="s">
         <v>15</v>
@@ -12563,10 +12332,10 @@
         <v>39</v>
       </c>
       <c r="D216" t="s">
-        <v>873</v>
+        <v>797</v>
       </c>
       <c r="E216" t="s">
-        <v>874</v>
+        <v>798</v>
       </c>
       <c r="F216" t="s">
         <v>19</v>
@@ -12575,7 +12344,7 @@
         <v>47</v>
       </c>
       <c r="H216" t="s">
-        <v>875</v>
+        <v>799</v>
       </c>
       <c r="I216" t="s">
         <v>22</v>
@@ -12598,19 +12367,19 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>876</v>
+        <v>800</v>
       </c>
       <c r="B217" t="s">
         <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>803</v>
+        <v>727</v>
       </c>
       <c r="D217" t="s">
-        <v>877</v>
+        <v>801</v>
       </c>
       <c r="E217" t="s">
-        <v>878</v>
+        <v>802</v>
       </c>
       <c r="F217" t="s">
         <v>19</v>
@@ -12619,7 +12388,7 @@
         <v>47</v>
       </c>
       <c r="H217" t="s">
-        <v>879</v>
+        <v>803</v>
       </c>
       <c r="I217" t="s">
         <v>22</v>
@@ -12642,19 +12411,19 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>880</v>
+        <v>804</v>
       </c>
       <c r="B218" t="s">
         <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>881</v>
+        <v>805</v>
       </c>
       <c r="D218" t="s">
-        <v>882</v>
+        <v>806</v>
       </c>
       <c r="E218" t="s">
-        <v>883</v>
+        <v>807</v>
       </c>
       <c r="F218" t="s">
         <v>19</v>
@@ -12663,7 +12432,7 @@
         <v>47</v>
       </c>
       <c r="H218" t="s">
-        <v>884</v>
+        <v>808</v>
       </c>
       <c r="I218" t="s">
         <v>22</v>
@@ -12686,7 +12455,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>885</v>
+        <v>809</v>
       </c>
       <c r="B219" t="s">
         <v>15</v>
@@ -12695,10 +12464,10 @@
         <v>65</v>
       </c>
       <c r="D219" t="s">
-        <v>886</v>
+        <v>810</v>
       </c>
       <c r="E219" t="s">
-        <v>887</v>
+        <v>811</v>
       </c>
       <c r="F219" t="s">
         <v>19</v>
@@ -12707,7 +12476,7 @@
         <v>47</v>
       </c>
       <c r="H219" t="s">
-        <v>888</v>
+        <v>812</v>
       </c>
       <c r="I219" t="s">
         <v>22</v>
@@ -12730,7 +12499,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>889</v>
+        <v>813</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
@@ -12739,10 +12508,10 @@
         <v>65</v>
       </c>
       <c r="D220" t="s">
-        <v>890</v>
+        <v>814</v>
       </c>
       <c r="E220" t="s">
-        <v>891</v>
+        <v>815</v>
       </c>
       <c r="F220" t="s">
         <v>19</v>
@@ -12751,7 +12520,7 @@
         <v>47</v>
       </c>
       <c r="H220" t="s">
-        <v>892</v>
+        <v>816</v>
       </c>
       <c r="I220" t="s">
         <v>22</v>
@@ -12774,7 +12543,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>893</v>
+        <v>817</v>
       </c>
       <c r="B221" t="s">
         <v>15</v>
@@ -12783,10 +12552,10 @@
         <v>113</v>
       </c>
       <c r="D221" t="s">
-        <v>894</v>
+        <v>818</v>
       </c>
       <c r="E221" t="s">
-        <v>895</v>
+        <v>819</v>
       </c>
       <c r="F221" t="s">
         <v>19</v>
@@ -12795,7 +12564,7 @@
         <v>47</v>
       </c>
       <c r="H221" t="s">
-        <v>896</v>
+        <v>820</v>
       </c>
       <c r="I221" t="s">
         <v>22</v>
@@ -12818,7 +12587,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>897</v>
+        <v>821</v>
       </c>
       <c r="B222" t="s">
         <v>15</v>
@@ -12827,10 +12596,10 @@
         <v>148</v>
       </c>
       <c r="D222" t="s">
-        <v>898</v>
+        <v>822</v>
       </c>
       <c r="E222" t="s">
-        <v>899</v>
+        <v>823</v>
       </c>
       <c r="F222" t="s">
         <v>19</v>
@@ -12839,7 +12608,7 @@
         <v>47</v>
       </c>
       <c r="H222" t="s">
-        <v>900</v>
+        <v>824</v>
       </c>
       <c r="I222" t="s">
         <v>22</v>
@@ -12862,19 +12631,19 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>901</v>
+        <v>825</v>
       </c>
       <c r="B223" t="s">
         <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
       <c r="D223" t="s">
-        <v>903</v>
+        <v>827</v>
       </c>
       <c r="E223" t="s">
-        <v>904</v>
+        <v>828</v>
       </c>
       <c r="F223" t="s">
         <v>19</v>
@@ -12883,7 +12652,7 @@
         <v>47</v>
       </c>
       <c r="H223" t="s">
-        <v>905</v>
+        <v>829</v>
       </c>
       <c r="I223" t="s">
         <v>22</v>
@@ -12906,7 +12675,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>906</v>
+        <v>830</v>
       </c>
       <c r="B224" t="s">
         <v>15</v>
@@ -12915,10 +12684,10 @@
         <v>148</v>
       </c>
       <c r="D224" t="s">
-        <v>907</v>
+        <v>831</v>
       </c>
       <c r="E224" t="s">
-        <v>908</v>
+        <v>832</v>
       </c>
       <c r="F224" t="s">
         <v>19</v>
@@ -12950,7 +12719,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>909</v>
+        <v>833</v>
       </c>
       <c r="B225" t="s">
         <v>15</v>
@@ -12959,10 +12728,10 @@
         <v>132</v>
       </c>
       <c r="D225" t="s">
-        <v>910</v>
+        <v>834</v>
       </c>
       <c r="E225" t="s">
-        <v>911</v>
+        <v>835</v>
       </c>
       <c r="F225" t="s">
         <v>19</v>
@@ -12971,7 +12740,7 @@
         <v>47</v>
       </c>
       <c r="H225" t="s">
-        <v>912</v>
+        <v>836</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
@@ -12994,19 +12763,19 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>913</v>
+        <v>837</v>
       </c>
       <c r="B226" t="s">
         <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>914</v>
+        <v>838</v>
       </c>
       <c r="D226" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E226" t="s">
-        <v>915</v>
+        <v>839</v>
       </c>
       <c r="F226" t="s">
         <v>19</v>
@@ -13015,7 +12784,7 @@
         <v>47</v>
       </c>
       <c r="H226" t="s">
-        <v>916</v>
+        <v>840</v>
       </c>
       <c r="I226" t="s">
         <v>22</v>
@@ -13038,19 +12807,19 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>917</v>
+        <v>841</v>
       </c>
       <c r="B227" t="s">
         <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>918</v>
+        <v>842</v>
       </c>
       <c r="D227" t="s">
-        <v>919</v>
+        <v>843</v>
       </c>
       <c r="E227" t="s">
-        <v>920</v>
+        <v>844</v>
       </c>
       <c r="F227" t="s">
         <v>19</v>
@@ -13059,7 +12828,7 @@
         <v>47</v>
       </c>
       <c r="H227" t="s">
-        <v>921</v>
+        <v>845</v>
       </c>
       <c r="I227" t="s">
         <v>22</v>
@@ -13082,7 +12851,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>922</v>
+        <v>846</v>
       </c>
       <c r="B228" t="s">
         <v>15</v>
@@ -13091,10 +12860,10 @@
         <v>132</v>
       </c>
       <c r="D228" t="s">
-        <v>923</v>
+        <v>847</v>
       </c>
       <c r="E228" t="s">
-        <v>924</v>
+        <v>848</v>
       </c>
       <c r="F228" t="s">
         <v>19</v>
@@ -13103,7 +12872,7 @@
         <v>47</v>
       </c>
       <c r="H228" t="s">
-        <v>925</v>
+        <v>849</v>
       </c>
       <c r="I228" t="s">
         <v>22</v>
@@ -13126,7 +12895,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>926</v>
+        <v>850</v>
       </c>
       <c r="B229" t="s">
         <v>15</v>
@@ -13138,7 +12907,7 @@
         <v>165</v>
       </c>
       <c r="E229" t="s">
-        <v>927</v>
+        <v>851</v>
       </c>
       <c r="F229" t="s">
         <v>19</v>
@@ -13147,7 +12916,7 @@
         <v>47</v>
       </c>
       <c r="H229" t="s">
-        <v>928</v>
+        <v>852</v>
       </c>
       <c r="I229" t="s">
         <v>22</v>
@@ -13170,19 +12939,19 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>929</v>
+        <v>853</v>
       </c>
       <c r="B230" t="s">
         <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>930</v>
+        <v>854</v>
       </c>
       <c r="D230" t="s">
-        <v>931</v>
+        <v>855</v>
       </c>
       <c r="E230" t="s">
-        <v>932</v>
+        <v>856</v>
       </c>
       <c r="F230" t="s">
         <v>19</v>
@@ -13191,7 +12960,7 @@
         <v>47</v>
       </c>
       <c r="H230" t="s">
-        <v>933</v>
+        <v>857</v>
       </c>
       <c r="I230" t="s">
         <v>22</v>
@@ -13214,19 +12983,19 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>934</v>
+        <v>858</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
       <c r="D231" t="s">
-        <v>935</v>
+        <v>859</v>
       </c>
       <c r="E231" t="s">
-        <v>936</v>
+        <v>860</v>
       </c>
       <c r="F231" t="s">
         <v>19</v>
@@ -13235,7 +13004,7 @@
         <v>47</v>
       </c>
       <c r="H231" t="s">
-        <v>937</v>
+        <v>861</v>
       </c>
       <c r="I231" t="s">
         <v>22</v>
@@ -13258,19 +13027,19 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>938</v>
+        <v>862</v>
       </c>
       <c r="B232" t="s">
         <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
       <c r="D232" t="s">
-        <v>939</v>
+        <v>863</v>
       </c>
       <c r="E232" t="s">
-        <v>940</v>
+        <v>864</v>
       </c>
       <c r="F232" t="s">
         <v>19</v>
@@ -13279,7 +13048,7 @@
         <v>47</v>
       </c>
       <c r="H232" t="s">
-        <v>941</v>
+        <v>865</v>
       </c>
       <c r="I232" t="s">
         <v>22</v>
@@ -13302,7 +13071,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>942</v>
+        <v>866</v>
       </c>
       <c r="B233" t="s">
         <v>15</v>
@@ -13311,10 +13080,10 @@
         <v>132</v>
       </c>
       <c r="D233" t="s">
-        <v>943</v>
+        <v>867</v>
       </c>
       <c r="E233" t="s">
-        <v>944</v>
+        <v>868</v>
       </c>
       <c r="F233" t="s">
         <v>19</v>
@@ -13323,7 +13092,7 @@
         <v>74</v>
       </c>
       <c r="H233" t="s">
-        <v>945</v>
+        <v>869</v>
       </c>
       <c r="I233" t="s">
         <v>22</v>
@@ -13346,19 +13115,19 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>946</v>
+        <v>870</v>
       </c>
       <c r="B234" t="s">
         <v>15</v>
       </c>
       <c r="C234" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
       <c r="D234" t="s">
-        <v>947</v>
+        <v>871</v>
       </c>
       <c r="E234" t="s">
-        <v>948</v>
+        <v>872</v>
       </c>
       <c r="F234" t="s">
         <v>19</v>
@@ -13367,7 +13136,7 @@
         <v>47</v>
       </c>
       <c r="H234" t="s">
-        <v>949</v>
+        <v>873</v>
       </c>
       <c r="I234" t="s">
         <v>22</v>
@@ -13390,19 +13159,19 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>950</v>
+        <v>874</v>
       </c>
       <c r="B235" t="s">
         <v>15</v>
       </c>
       <c r="C235" t="s">
-        <v>951</v>
+        <v>875</v>
       </c>
       <c r="D235" t="s">
-        <v>952</v>
+        <v>876</v>
       </c>
       <c r="E235" t="s">
-        <v>953</v>
+        <v>877</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -13411,7 +13180,7 @@
         <v>47</v>
       </c>
       <c r="H235" t="s">
-        <v>954</v>
+        <v>878</v>
       </c>
       <c r="I235" t="s">
         <v>22</v>
@@ -13434,7 +13203,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>955</v>
+        <v>879</v>
       </c>
       <c r="B236" t="s">
         <v>15</v>
@@ -13443,10 +13212,10 @@
         <v>148</v>
       </c>
       <c r="D236" t="s">
-        <v>956</v>
+        <v>880</v>
       </c>
       <c r="E236" t="s">
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="F236" t="s">
         <v>19</v>
@@ -13478,19 +13247,19 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>958</v>
+        <v>882</v>
       </c>
       <c r="B237" t="s">
         <v>15</v>
       </c>
       <c r="C237" t="s">
-        <v>951</v>
+        <v>875</v>
       </c>
       <c r="D237" t="s">
-        <v>959</v>
+        <v>883</v>
       </c>
       <c r="E237" t="s">
-        <v>960</v>
+        <v>884</v>
       </c>
       <c r="F237" t="s">
         <v>19</v>
@@ -13499,7 +13268,7 @@
         <v>47</v>
       </c>
       <c r="H237" t="s">
-        <v>961</v>
+        <v>885</v>
       </c>
       <c r="I237" t="s">
         <v>22</v>
@@ -13522,7 +13291,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>962</v>
+        <v>886</v>
       </c>
       <c r="B238" t="s">
         <v>15</v>
@@ -13531,10 +13300,10 @@
         <v>132</v>
       </c>
       <c r="D238" t="s">
-        <v>963</v>
+        <v>887</v>
       </c>
       <c r="E238" t="s">
-        <v>964</v>
+        <v>888</v>
       </c>
       <c r="F238" t="s">
         <v>19</v>
@@ -13543,7 +13312,7 @@
         <v>143</v>
       </c>
       <c r="H238" t="s">
-        <v>912</v>
+        <v>836</v>
       </c>
       <c r="I238" t="s">
         <v>22</v>
@@ -13566,19 +13335,19 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>965</v>
+        <v>889</v>
       </c>
       <c r="B239" t="s">
         <v>15</v>
       </c>
       <c r="C239" t="s">
-        <v>930</v>
+        <v>854</v>
       </c>
       <c r="D239" t="s">
-        <v>966</v>
+        <v>890</v>
       </c>
       <c r="E239" t="s">
-        <v>967</v>
+        <v>891</v>
       </c>
       <c r="F239" t="s">
         <v>19</v>
@@ -13587,7 +13356,7 @@
         <v>47</v>
       </c>
       <c r="H239" t="s">
-        <v>968</v>
+        <v>892</v>
       </c>
       <c r="I239" t="s">
         <v>22</v>
@@ -13610,7 +13379,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>969</v>
+        <v>893</v>
       </c>
       <c r="B240" t="s">
         <v>15</v>
@@ -13619,10 +13388,10 @@
         <v>113</v>
       </c>
       <c r="D240" t="s">
-        <v>970</v>
+        <v>894</v>
       </c>
       <c r="E240" t="s">
-        <v>971</v>
+        <v>895</v>
       </c>
       <c r="F240" t="s">
         <v>19</v>
@@ -13631,7 +13400,7 @@
         <v>47</v>
       </c>
       <c r="H240" t="s">
-        <v>972</v>
+        <v>896</v>
       </c>
       <c r="I240" t="s">
         <v>22</v>
@@ -13654,19 +13423,19 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>973</v>
+        <v>897</v>
       </c>
       <c r="B241" t="s">
         <v>15</v>
       </c>
       <c r="C241" t="s">
-        <v>914</v>
+        <v>838</v>
       </c>
       <c r="D241" t="s">
-        <v>974</v>
+        <v>898</v>
       </c>
       <c r="E241" t="s">
-        <v>975</v>
+        <v>899</v>
       </c>
       <c r="F241" t="s">
         <v>19</v>
@@ -13675,7 +13444,7 @@
         <v>47</v>
       </c>
       <c r="H241" t="s">
-        <v>976</v>
+        <v>900</v>
       </c>
       <c r="I241" t="s">
         <v>22</v>
@@ -13698,19 +13467,19 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>977</v>
+        <v>901</v>
       </c>
       <c r="B242" t="s">
         <v>15</v>
       </c>
       <c r="C242" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
       <c r="D242" t="s">
-        <v>947</v>
+        <v>871</v>
       </c>
       <c r="E242" t="s">
-        <v>948</v>
+        <v>872</v>
       </c>
       <c r="F242" t="s">
         <v>19</v>
@@ -13719,7 +13488,7 @@
         <v>47</v>
       </c>
       <c r="H242" t="s">
-        <v>978</v>
+        <v>902</v>
       </c>
       <c r="I242" t="s">
         <v>22</v>
@@ -13742,7 +13511,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>979</v>
+        <v>903</v>
       </c>
       <c r="B243" t="s">
         <v>15</v>
@@ -13751,10 +13520,10 @@
         <v>132</v>
       </c>
       <c r="D243" t="s">
-        <v>980</v>
+        <v>904</v>
       </c>
       <c r="E243" t="s">
-        <v>981</v>
+        <v>905</v>
       </c>
       <c r="F243" t="s">
         <v>19</v>
@@ -13763,7 +13532,7 @@
         <v>74</v>
       </c>
       <c r="H243" t="s">
-        <v>982</v>
+        <v>906</v>
       </c>
       <c r="I243" t="s">
         <v>22</v>
@@ -13786,19 +13555,19 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>983</v>
+        <v>907</v>
       </c>
       <c r="B244" t="s">
         <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>951</v>
+        <v>875</v>
       </c>
       <c r="D244" t="s">
-        <v>984</v>
+        <v>908</v>
       </c>
       <c r="E244" t="s">
-        <v>985</v>
+        <v>909</v>
       </c>
       <c r="F244" t="s">
         <v>19</v>
@@ -13807,7 +13576,7 @@
         <v>47</v>
       </c>
       <c r="H244" t="s">
-        <v>986</v>
+        <v>910</v>
       </c>
       <c r="I244" t="s">
         <v>22</v>
@@ -13830,19 +13599,19 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>987</v>
+        <v>911</v>
       </c>
       <c r="B245" t="s">
         <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
       <c r="D245" t="s">
-        <v>988</v>
+        <v>912</v>
       </c>
       <c r="E245" t="s">
-        <v>989</v>
+        <v>913</v>
       </c>
       <c r="F245" t="s">
         <v>19</v>
@@ -13851,7 +13620,7 @@
         <v>47</v>
       </c>
       <c r="H245" t="s">
-        <v>990</v>
+        <v>914</v>
       </c>
       <c r="I245" t="s">
         <v>22</v>
@@ -13874,7 +13643,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>991</v>
+        <v>915</v>
       </c>
       <c r="B246" t="s">
         <v>15</v>
@@ -13883,10 +13652,10 @@
         <v>175</v>
       </c>
       <c r="D246" t="s">
-        <v>992</v>
+        <v>916</v>
       </c>
       <c r="E246" t="s">
-        <v>993</v>
+        <v>917</v>
       </c>
       <c r="F246" t="s">
         <v>19</v>
@@ -13918,19 +13687,19 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>994</v>
+        <v>918</v>
       </c>
       <c r="B247" t="s">
         <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>995</v>
+        <v>919</v>
       </c>
       <c r="D247" t="s">
-        <v>996</v>
+        <v>920</v>
       </c>
       <c r="E247" t="s">
-        <v>997</v>
+        <v>921</v>
       </c>
       <c r="F247" t="s">
         <v>19</v>
@@ -13939,7 +13708,7 @@
         <v>47</v>
       </c>
       <c r="H247" t="s">
-        <v>998</v>
+        <v>922</v>
       </c>
       <c r="I247" t="s">
         <v>22</v>
@@ -13962,19 +13731,19 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>999</v>
+        <v>923</v>
       </c>
       <c r="B248" t="s">
         <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>1000</v>
+        <v>924</v>
       </c>
       <c r="D248" t="s">
-        <v>1001</v>
+        <v>925</v>
       </c>
       <c r="E248" t="s">
-        <v>1002</v>
+        <v>926</v>
       </c>
       <c r="F248" t="s">
         <v>19</v>
@@ -13983,7 +13752,7 @@
         <v>47</v>
       </c>
       <c r="H248" t="s">
-        <v>1003</v>
+        <v>927</v>
       </c>
       <c r="I248" t="s">
         <v>22</v>
@@ -14006,7 +13775,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1004</v>
+        <v>928</v>
       </c>
       <c r="B249" t="s">
         <v>15</v>
@@ -14015,10 +13784,10 @@
         <v>132</v>
       </c>
       <c r="D249" t="s">
-        <v>1005</v>
+        <v>929</v>
       </c>
       <c r="E249" t="s">
-        <v>1006</v>
+        <v>930</v>
       </c>
       <c r="F249" t="s">
         <v>19</v>
@@ -14027,7 +13796,7 @@
         <v>47</v>
       </c>
       <c r="H249" t="s">
-        <v>912</v>
+        <v>836</v>
       </c>
       <c r="I249" t="s">
         <v>22</v>
@@ -14050,19 +13819,19 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1007</v>
+        <v>931</v>
       </c>
       <c r="B250" t="s">
         <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
       <c r="D250" t="s">
-        <v>903</v>
+        <v>827</v>
       </c>
       <c r="E250" t="s">
-        <v>1008</v>
+        <v>932</v>
       </c>
       <c r="F250" t="s">
         <v>19</v>
@@ -14071,7 +13840,7 @@
         <v>47</v>
       </c>
       <c r="H250" t="s">
-        <v>1009</v>
+        <v>933</v>
       </c>
       <c r="I250" t="s">
         <v>22</v>
@@ -14094,19 +13863,19 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1010</v>
+        <v>934</v>
       </c>
       <c r="B251" t="s">
         <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>918</v>
+        <v>842</v>
       </c>
       <c r="D251" t="s">
-        <v>1011</v>
+        <v>935</v>
       </c>
       <c r="E251" t="s">
-        <v>1012</v>
+        <v>936</v>
       </c>
       <c r="F251" t="s">
         <v>19</v>
@@ -14115,7 +13884,7 @@
         <v>47</v>
       </c>
       <c r="H251" t="s">
-        <v>1013</v>
+        <v>937</v>
       </c>
       <c r="I251" t="s">
         <v>22</v>
@@ -14138,19 +13907,19 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1014</v>
+        <v>938</v>
       </c>
       <c r="B252" t="s">
         <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>995</v>
+        <v>919</v>
       </c>
       <c r="D252" t="s">
-        <v>1015</v>
+        <v>939</v>
       </c>
       <c r="E252" t="s">
-        <v>1016</v>
+        <v>940</v>
       </c>
       <c r="F252" t="s">
         <v>19</v>
@@ -14159,7 +13928,7 @@
         <v>74</v>
       </c>
       <c r="H252" t="s">
-        <v>884</v>
+        <v>808</v>
       </c>
       <c r="I252" t="s">
         <v>22</v>
@@ -14182,19 +13951,19 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1017</v>
+        <v>941</v>
       </c>
       <c r="B253" t="s">
         <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>1018</v>
+        <v>942</v>
       </c>
       <c r="D253" t="s">
-        <v>1019</v>
+        <v>943</v>
       </c>
       <c r="E253" t="s">
-        <v>1020</v>
+        <v>944</v>
       </c>
       <c r="F253" t="s">
         <v>19</v>
@@ -14203,7 +13972,7 @@
         <v>47</v>
       </c>
       <c r="H253" t="s">
-        <v>1021</v>
+        <v>945</v>
       </c>
       <c r="I253" t="s">
         <v>22</v>
@@ -14226,19 +13995,19 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1022</v>
+        <v>946</v>
       </c>
       <c r="B254" t="s">
         <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>1023</v>
+        <v>947</v>
       </c>
       <c r="D254" t="s">
-        <v>1024</v>
+        <v>948</v>
       </c>
       <c r="E254" t="s">
-        <v>1025</v>
+        <v>949</v>
       </c>
       <c r="F254" t="s">
         <v>19</v>
@@ -14247,7 +14016,7 @@
         <v>47</v>
       </c>
       <c r="H254" t="s">
-        <v>1026</v>
+        <v>950</v>
       </c>
       <c r="I254" t="s">
         <v>22</v>
@@ -14270,19 +14039,19 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1027</v>
+        <v>951</v>
       </c>
       <c r="B255" t="s">
         <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>1023</v>
+        <v>947</v>
       </c>
       <c r="D255" t="s">
-        <v>1028</v>
+        <v>952</v>
       </c>
       <c r="E255" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
       <c r="F255" t="s">
         <v>19</v>
@@ -14291,7 +14060,7 @@
         <v>47</v>
       </c>
       <c r="H255" t="s">
-        <v>1030</v>
+        <v>954</v>
       </c>
       <c r="I255" t="s">
         <v>22</v>
@@ -14314,19 +14083,19 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1031</v>
+        <v>955</v>
       </c>
       <c r="B256" t="s">
         <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>930</v>
+        <v>854</v>
       </c>
       <c r="D256" t="s">
-        <v>966</v>
+        <v>890</v>
       </c>
       <c r="E256" t="s">
-        <v>967</v>
+        <v>891</v>
       </c>
       <c r="F256" t="s">
         <v>19</v>
@@ -14335,7 +14104,7 @@
         <v>47</v>
       </c>
       <c r="H256" t="s">
-        <v>1032</v>
+        <v>956</v>
       </c>
       <c r="I256" t="s">
         <v>22</v>
@@ -14358,19 +14127,19 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1033</v>
+        <v>957</v>
       </c>
       <c r="B257" t="s">
         <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>1023</v>
+        <v>947</v>
       </c>
       <c r="D257" t="s">
-        <v>1034</v>
+        <v>958</v>
       </c>
       <c r="E257" t="s">
-        <v>1035</v>
+        <v>959</v>
       </c>
       <c r="F257" t="s">
         <v>19</v>
@@ -14379,7 +14148,7 @@
         <v>47</v>
       </c>
       <c r="H257" t="s">
-        <v>1036</v>
+        <v>960</v>
       </c>
       <c r="I257" t="s">
         <v>22</v>
@@ -14402,19 +14171,19 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>1037</v>
+        <v>961</v>
       </c>
       <c r="B258" t="s">
         <v>15</v>
       </c>
       <c r="C258" t="s">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="D258" t="s">
-        <v>1039</v>
+        <v>963</v>
       </c>
       <c r="E258" t="s">
-        <v>1040</v>
+        <v>964</v>
       </c>
       <c r="F258" t="s">
         <v>19</v>
@@ -14423,7 +14192,7 @@
         <v>47</v>
       </c>
       <c r="H258" t="s">
-        <v>1041</v>
+        <v>965</v>
       </c>
       <c r="I258" t="s">
         <v>22</v>
@@ -14446,19 +14215,19 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1042</v>
+        <v>966</v>
       </c>
       <c r="B259" t="s">
         <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>1023</v>
+        <v>947</v>
       </c>
       <c r="D259" t="s">
-        <v>1043</v>
+        <v>967</v>
       </c>
       <c r="E259" t="s">
-        <v>1044</v>
+        <v>968</v>
       </c>
       <c r="F259" t="s">
         <v>19</v>
@@ -14467,7 +14236,7 @@
         <v>47</v>
       </c>
       <c r="H259" t="s">
-        <v>1045</v>
+        <v>969</v>
       </c>
       <c r="I259" t="s">
         <v>22</v>
@@ -14490,19 +14259,19 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>1046</v>
+        <v>970</v>
       </c>
       <c r="B260" t="s">
         <v>15</v>
       </c>
       <c r="C260" t="s">
-        <v>1023</v>
+        <v>947</v>
       </c>
       <c r="D260" t="s">
-        <v>1047</v>
+        <v>971</v>
       </c>
       <c r="E260" t="s">
-        <v>1048</v>
+        <v>972</v>
       </c>
       <c r="F260" t="s">
         <v>19</v>
@@ -14511,7 +14280,7 @@
         <v>74</v>
       </c>
       <c r="H260" t="s">
-        <v>1049</v>
+        <v>973</v>
       </c>
       <c r="I260" t="s">
         <v>22</v>
@@ -14534,19 +14303,19 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>1050</v>
+        <v>974</v>
       </c>
       <c r="B261" t="s">
         <v>15</v>
       </c>
       <c r="C261" t="s">
-        <v>1023</v>
+        <v>947</v>
       </c>
       <c r="D261" t="s">
-        <v>1051</v>
+        <v>975</v>
       </c>
       <c r="E261" t="s">
-        <v>1052</v>
+        <v>976</v>
       </c>
       <c r="F261" t="s">
         <v>19</v>
@@ -14555,7 +14324,7 @@
         <v>47</v>
       </c>
       <c r="H261" t="s">
-        <v>1053</v>
+        <v>977</v>
       </c>
       <c r="I261" t="s">
         <v>22</v>
@@ -14578,19 +14347,19 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="B262" t="s">
         <v>15</v>
       </c>
       <c r="C262" t="s">
-        <v>1055</v>
+        <v>397</v>
       </c>
       <c r="D262" t="s">
-        <v>1056</v>
+        <v>979</v>
       </c>
       <c r="E262" t="s">
-        <v>1057</v>
+        <v>980</v>
       </c>
       <c r="F262" t="s">
         <v>19</v>
@@ -14599,7 +14368,7 @@
         <v>47</v>
       </c>
       <c r="H262" t="s">
-        <v>1058</v>
+        <v>981</v>
       </c>
       <c r="I262" t="s">
         <v>22</v>
@@ -14622,19 +14391,19 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>1059</v>
+        <v>982</v>
       </c>
       <c r="B263" t="s">
         <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>1060</v>
+        <v>983</v>
       </c>
       <c r="D263" t="s">
-        <v>1061</v>
+        <v>984</v>
       </c>
       <c r="E263" t="s">
-        <v>1062</v>
+        <v>985</v>
       </c>
       <c r="F263" t="s">
         <v>19</v>
@@ -14643,7 +14412,7 @@
         <v>47</v>
       </c>
       <c r="H263" t="s">
-        <v>1063</v>
+        <v>986</v>
       </c>
       <c r="I263" t="s">
         <v>22</v>
@@ -14680,10 +14449,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1064</v>
+        <v>987</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1065</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2">
@@ -14691,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1066</v>
+        <v>989</v>
       </c>
     </row>
     <row r="3">
@@ -14699,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1067</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4">
@@ -14707,7 +14476,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1068</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5">
@@ -14715,7 +14484,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1069</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6">
@@ -14723,7 +14492,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1070</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7">
@@ -14731,7 +14500,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1071</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8">
@@ -14739,7 +14508,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1072</v>
+        <v>995</v>
       </c>
     </row>
     <row r="9">
@@ -14747,7 +14516,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1073</v>
+        <v>996</v>
       </c>
     </row>
     <row r="10">
@@ -14755,7 +14524,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1074</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11">
@@ -14763,7 +14532,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1075</v>
+        <v>998</v>
       </c>
     </row>
     <row r="12">
@@ -14771,7 +14540,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1076</v>
+        <v>999</v>
       </c>
     </row>
     <row r="13">
@@ -14779,7 +14548,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1077</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -14787,7 +14556,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1078</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="15">
@@ -14795,7 +14564,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1079</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
